--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -415,10 +415,10 @@
         <v>3.731336222716664</v>
       </c>
       <c r="C2">
-        <v>1.373722831114492</v>
+        <v>1.373722831114094</v>
       </c>
       <c r="D2">
-        <v>0.2130656611241761</v>
+        <v>0.2130656611241619</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,10 +427,10 @@
         <v>1.520768225267133</v>
       </c>
       <c r="G2">
-        <v>0.8600417006156675</v>
+        <v>0.8600417006156533</v>
       </c>
       <c r="H2">
-        <v>0.3958462275045349</v>
+        <v>0.3958462275045207</v>
       </c>
       <c r="I2">
         <v>2.033616454402889</v>
@@ -462,16 +462,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.328376214542359</v>
+        <v>1.328376214542388</v>
       </c>
       <c r="G3">
-        <v>0.759587107134621</v>
+        <v>0.7595871071346281</v>
       </c>
       <c r="H3">
-        <v>0.3669766247015787</v>
+        <v>0.3669766247015858</v>
       </c>
       <c r="I3">
-        <v>1.723175813525145</v>
+        <v>1.723175813525131</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>2.918157606541683</v>
       </c>
       <c r="C4">
-        <v>1.071278415425411</v>
+        <v>1.071278415424899</v>
       </c>
       <c r="D4">
         <v>0.1662894223475604</v>
@@ -503,7 +503,7 @@
         <v>1.216369362225279</v>
       </c>
       <c r="G4">
-        <v>0.7017665278889567</v>
+        <v>0.7017665278889496</v>
       </c>
       <c r="H4">
         <v>0.3516950405005517</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.79368703296808</v>
+        <v>2.793687032968137</v>
       </c>
       <c r="C5">
-        <v>1.025192851032358</v>
+        <v>1.02519285103179</v>
       </c>
       <c r="D5">
-        <v>0.1591930272309412</v>
+        <v>0.1591930272310549</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,13 +541,13 @@
         <v>1.172066575694473</v>
       </c>
       <c r="G5">
-        <v>0.67905685330701</v>
+        <v>0.6790568533070029</v>
       </c>
       <c r="H5">
-        <v>0.3460166470194821</v>
+        <v>0.346016647019475</v>
       </c>
       <c r="I5">
-        <v>1.467024539238878</v>
+        <v>1.467024539238849</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.773056985792095</v>
+        <v>2.773056985792039</v>
       </c>
       <c r="C6">
         <v>1.017559731874371</v>
       </c>
       <c r="D6">
-        <v>0.1580183600616891</v>
+        <v>0.1580183600618028</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.164785761038615</v>
+        <v>1.164785761038644</v>
       </c>
       <c r="G6">
-        <v>0.6753342456918361</v>
+        <v>0.6753342456918432</v>
       </c>
       <c r="H6">
-        <v>0.3451051308331969</v>
+        <v>0.3451051308332254</v>
       </c>
       <c r="I6">
-        <v>1.454978183212873</v>
+        <v>1.45497818321283</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.91647629373449</v>
+        <v>2.916476293734547</v>
       </c>
       <c r="C7">
-        <v>1.070655544031553</v>
+        <v>1.070655544031723</v>
       </c>
       <c r="D7">
-        <v>0.1661934611704794</v>
+        <v>0.1661934611703231</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>1.215766695242507</v>
       </c>
       <c r="G7">
-        <v>0.7014569504006758</v>
+        <v>0.7014569504006687</v>
       </c>
       <c r="H7">
-        <v>0.3516163183110592</v>
+        <v>0.3516163183110663</v>
       </c>
       <c r="I7">
-        <v>1.53909173741944</v>
+        <v>1.539091737419454</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>3.556032724267027</v>
       </c>
       <c r="C8">
-        <v>1.308318313546977</v>
+        <v>1.308318313547488</v>
       </c>
       <c r="D8">
-        <v>0.2029171636837361</v>
+        <v>0.2029171636835514</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0.8245286272301087</v>
       </c>
       <c r="H8">
-        <v>0.385342595565568</v>
+        <v>0.3853425955655609</v>
       </c>
       <c r="I8">
-        <v>1.92479557654201</v>
+        <v>1.924795576542024</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.847005998429495</v>
+        <v>4.847005998429609</v>
       </c>
       <c r="C9">
-        <v>1.792755858545149</v>
+        <v>1.792755858545206</v>
       </c>
       <c r="D9">
-        <v>0.278620020869198</v>
+        <v>0.2786200208693117</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.977408331382634</v>
+        <v>1.977408331382648</v>
       </c>
       <c r="G9">
-        <v>1.102681164321893</v>
+        <v>1.102681164321908</v>
       </c>
       <c r="H9">
-        <v>0.474318324041235</v>
+        <v>0.4743183240412208</v>
       </c>
       <c r="I9">
-        <v>2.759525653381417</v>
+        <v>2.759525653381459</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.833094459394999</v>
+        <v>5.833094459395056</v>
       </c>
       <c r="C10">
-        <v>2.167446017206146</v>
+        <v>2.167446017205975</v>
       </c>
       <c r="D10">
         <v>0.3382325667728452</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.41652468566663</v>
+        <v>2.416524685666644</v>
       </c>
       <c r="G10">
-        <v>1.33989082892974</v>
+        <v>1.339890828929754</v>
       </c>
       <c r="H10">
-        <v>0.5593773041507717</v>
+        <v>0.5593773041507646</v>
       </c>
       <c r="I10">
-        <v>3.454255108512768</v>
+        <v>3.454255108512797</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.294219818233785</v>
+        <v>6.294219818233955</v>
       </c>
       <c r="C11">
-        <v>2.34419685654467</v>
+        <v>2.344196856544556</v>
       </c>
       <c r="D11">
-        <v>0.366773648306193</v>
+        <v>0.3667736483060935</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,13 +769,13 @@
         <v>2.633217403965546</v>
       </c>
       <c r="G11">
-        <v>1.457957403031443</v>
+        <v>1.457957403031457</v>
       </c>
       <c r="H11">
-        <v>0.604012626195896</v>
+        <v>0.6040126261958889</v>
       </c>
       <c r="I11">
-        <v>3.79871468208438</v>
+        <v>3.798714682084366</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>6.471109054749149</v>
       </c>
       <c r="C12">
-        <v>2.412277004063924</v>
+        <v>2.412277004063753</v>
       </c>
       <c r="D12">
-        <v>0.377851424454775</v>
+        <v>0.3778514244548745</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>1.504455746680847</v>
       </c>
       <c r="H12">
-        <v>0.6219497962235252</v>
+        <v>0.6219497962235181</v>
       </c>
       <c r="I12">
-        <v>3.934505931165745</v>
+        <v>3.934505931165788</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.432903114164674</v>
+        <v>6.432903114164731</v>
       </c>
       <c r="C13">
-        <v>2.397559103255389</v>
+        <v>2.397559103255674</v>
       </c>
       <c r="D13">
-        <v>0.3754523482941323</v>
+        <v>0.3754523482943455</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>1.494355793609785</v>
       </c>
       <c r="H13">
-        <v>0.618037324761616</v>
+        <v>0.6180373247616302</v>
       </c>
       <c r="I13">
-        <v>3.904998120988026</v>
+        <v>3.904998120988068</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.30872400557098</v>
+        <v>6.308724005570923</v>
       </c>
       <c r="C14">
-        <v>2.349773221143437</v>
+        <v>2.349773221143323</v>
       </c>
       <c r="D14">
-        <v>0.3676791634169092</v>
+        <v>0.3676791634170087</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.6401517486579</v>
+        <v>2.640151748657871</v>
       </c>
       <c r="G14">
-        <v>1.46174481585777</v>
+        <v>1.461744815857799</v>
       </c>
       <c r="H14">
-        <v>0.6054663965222105</v>
+        <v>0.6054663965222034</v>
       </c>
       <c r="I14">
         <v>3.80977030849732</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.232972252594948</v>
+        <v>6.232972252595005</v>
       </c>
       <c r="C15">
         <v>2.320660805667444</v>
       </c>
       <c r="D15">
-        <v>0.3629553118848889</v>
+        <v>0.3629553118847753</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.604015478845668</v>
+        <v>2.604015478845639</v>
       </c>
       <c r="G15">
-        <v>1.442013790156992</v>
+        <v>1.44201379015702</v>
       </c>
       <c r="H15">
         <v>0.5979072049926302</v>
       </c>
       <c r="I15">
-        <v>3.752182080167984</v>
+        <v>3.752182080167998</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>5.803248771966992</v>
       </c>
       <c r="C16">
-        <v>2.156041095452906</v>
+        <v>2.156041095452565</v>
       </c>
       <c r="D16">
-        <v>0.336401093336363</v>
+        <v>0.3364010933364483</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.402749980963804</v>
+        <v>2.402749980963819</v>
       </c>
       <c r="G16">
-        <v>1.332405595422742</v>
+        <v>1.332405595422728</v>
       </c>
       <c r="H16">
-        <v>0.5565942915271904</v>
+        <v>0.5565942915271762</v>
       </c>
       <c r="I16">
-        <v>3.432415018760381</v>
+        <v>3.432415018760409</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.543140526441505</v>
+        <v>5.543140526441562</v>
       </c>
       <c r="C17">
-        <v>2.056820602583173</v>
+        <v>2.056820602583343</v>
       </c>
       <c r="D17">
-        <v>0.3205157492007373</v>
+        <v>0.320515749200851</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>2.283983476729418</v>
       </c>
       <c r="G17">
-        <v>1.267976143412511</v>
+        <v>1.267976143412497</v>
       </c>
       <c r="H17">
-        <v>0.5328873666725116</v>
+        <v>0.5328873666725187</v>
       </c>
       <c r="I17">
-        <v>3.244310030933818</v>
+        <v>3.244310030933775</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.394680946579285</v>
+        <v>5.394680946579115</v>
       </c>
       <c r="C18">
-        <v>2.000327345350627</v>
+        <v>2.000327345350456</v>
       </c>
       <c r="D18">
-        <v>0.3115079876363183</v>
+        <v>0.3115079876361051</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.217224786536264</v>
+        <v>2.217224786536249</v>
       </c>
       <c r="G18">
-        <v>1.231850643135104</v>
+        <v>1.23185064313509</v>
       </c>
       <c r="H18">
-        <v>0.5197981005795924</v>
+        <v>0.5197981005795782</v>
       </c>
       <c r="I18">
-        <v>3.138697913810702</v>
+        <v>3.138697913810716</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.344599714766218</v>
+        <v>5.344599714766332</v>
       </c>
       <c r="C19">
-        <v>1.981292150888521</v>
+        <v>1.981292150888407</v>
       </c>
       <c r="D19">
-        <v>0.3084786116801865</v>
+        <v>0.3084786116803002</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.194872863181132</v>
+        <v>2.194872863181118</v>
       </c>
       <c r="G19">
-        <v>1.219770587595718</v>
+        <v>1.219770587595733</v>
       </c>
       <c r="H19">
         <v>0.5154553094982148</v>
@@ -1099,22 +1099,22 @@
         <v>5.570707664050929</v>
       </c>
       <c r="C20">
-        <v>2.067321641983654</v>
+        <v>2.067321641983824</v>
       </c>
       <c r="D20">
-        <v>0.3221930047558601</v>
+        <v>0.3221930047558317</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.296461971649279</v>
+        <v>2.296461971649293</v>
       </c>
       <c r="G20">
-        <v>1.274736118309818</v>
+        <v>1.274736118309832</v>
       </c>
       <c r="H20">
-        <v>0.5353532949093278</v>
+        <v>0.535353294909342</v>
       </c>
       <c r="I20">
         <v>3.264059099667435</v>
@@ -1137,25 +1137,25 @@
         <v>6.345132495759799</v>
       </c>
       <c r="C21">
-        <v>2.363775678885702</v>
+        <v>2.363775678885872</v>
       </c>
       <c r="D21">
-        <v>0.3699543834935781</v>
+        <v>0.3699543834935639</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.657590422508832</v>
+        <v>2.657590422508747</v>
       </c>
       <c r="G21">
-        <v>1.4712718640681</v>
+        <v>1.471271864068086</v>
       </c>
       <c r="H21">
-        <v>0.6091290389576969</v>
+        <v>0.6091290389576898</v>
       </c>
       <c r="I21">
-        <v>3.83758360970279</v>
+        <v>3.837583609702776</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.864809085703712</v>
+        <v>6.864809085703598</v>
       </c>
       <c r="C22">
-        <v>2.564382670909197</v>
+        <v>2.564382670908799</v>
       </c>
       <c r="D22">
-        <v>0.4027902804740364</v>
+        <v>0.4027902804739227</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.911541854101557</v>
+        <v>2.911541854101614</v>
       </c>
       <c r="G22">
-        <v>1.610366396791548</v>
+        <v>1.610366396791562</v>
       </c>
       <c r="H22">
-        <v>0.6634965975298996</v>
+        <v>0.6634965975299068</v>
       </c>
       <c r="I22">
-        <v>4.244538344029579</v>
+        <v>4.244538344029536</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.586022312087948</v>
+        <v>6.586022312087891</v>
       </c>
       <c r="C23">
-        <v>2.456589670675839</v>
+        <v>2.45658967067601</v>
       </c>
       <c r="D23">
-        <v>0.3850890790883597</v>
+        <v>0.3850890790882602</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>2.774129782781557</v>
       </c>
       <c r="G23">
-        <v>1.535022980407348</v>
+        <v>1.535022980407334</v>
       </c>
       <c r="H23">
         <v>0.6338446020887361</v>
@@ -1251,16 +1251,16 @@
         <v>5.558241230448857</v>
       </c>
       <c r="C24">
-        <v>2.062572426563747</v>
+        <v>2.06257242656369</v>
       </c>
       <c r="D24">
-        <v>0.3214343329872662</v>
+        <v>0.3214343329871809</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.290815745409844</v>
+        <v>2.29081574540983</v>
       </c>
       <c r="G24">
         <v>1.271677104608074</v>
@@ -1269,7 +1269,7 @@
         <v>0.5342367792605245</v>
       </c>
       <c r="I24">
-        <v>3.255122748612919</v>
+        <v>3.255122748612933</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.492418268804613</v>
+        <v>4.49241826880467</v>
       </c>
       <c r="C25">
-        <v>1.659039433107068</v>
+        <v>1.659039433107182</v>
       </c>
       <c r="D25">
-        <v>0.257590441147201</v>
+        <v>0.2575904411469025</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.827586526108291</v>
+        <v>1.82758652610832</v>
       </c>
       <c r="G25">
-        <v>1.022532302223155</v>
+        <v>1.022532302223169</v>
       </c>
       <c r="H25">
-        <v>0.4472700570135828</v>
+        <v>0.4472700570135686</v>
       </c>
       <c r="I25">
-        <v>2.522329528838611</v>
+        <v>2.522329528838654</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -415,10 +415,10 @@
         <v>3.731336222716664</v>
       </c>
       <c r="C2">
-        <v>1.373722831114094</v>
+        <v>1.373722831114492</v>
       </c>
       <c r="D2">
-        <v>0.2130656611241619</v>
+        <v>0.2130656611241761</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,10 +427,10 @@
         <v>1.520768225267133</v>
       </c>
       <c r="G2">
-        <v>0.8600417006156533</v>
+        <v>0.8600417006156675</v>
       </c>
       <c r="H2">
-        <v>0.3958462275045207</v>
+        <v>0.3958462275045349</v>
       </c>
       <c r="I2">
         <v>2.033616454402889</v>
@@ -462,16 +462,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.328376214542388</v>
+        <v>1.328376214542359</v>
       </c>
       <c r="G3">
-        <v>0.7595871071346281</v>
+        <v>0.759587107134621</v>
       </c>
       <c r="H3">
-        <v>0.3669766247015858</v>
+        <v>0.3669766247015787</v>
       </c>
       <c r="I3">
-        <v>1.723175813525131</v>
+        <v>1.723175813525145</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>2.918157606541683</v>
       </c>
       <c r="C4">
-        <v>1.071278415424899</v>
+        <v>1.071278415425411</v>
       </c>
       <c r="D4">
         <v>0.1662894223475604</v>
@@ -503,7 +503,7 @@
         <v>1.216369362225279</v>
       </c>
       <c r="G4">
-        <v>0.7017665278889496</v>
+        <v>0.7017665278889567</v>
       </c>
       <c r="H4">
         <v>0.3516950405005517</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.793687032968137</v>
+        <v>2.79368703296808</v>
       </c>
       <c r="C5">
-        <v>1.02519285103179</v>
+        <v>1.025192851032358</v>
       </c>
       <c r="D5">
-        <v>0.1591930272310549</v>
+        <v>0.1591930272309412</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,13 +541,13 @@
         <v>1.172066575694473</v>
       </c>
       <c r="G5">
-        <v>0.6790568533070029</v>
+        <v>0.67905685330701</v>
       </c>
       <c r="H5">
-        <v>0.346016647019475</v>
+        <v>0.3460166470194821</v>
       </c>
       <c r="I5">
-        <v>1.467024539238849</v>
+        <v>1.467024539238878</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.773056985792039</v>
+        <v>2.773056985792095</v>
       </c>
       <c r="C6">
         <v>1.017559731874371</v>
       </c>
       <c r="D6">
-        <v>0.1580183600618028</v>
+        <v>0.1580183600616891</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.164785761038644</v>
+        <v>1.164785761038615</v>
       </c>
       <c r="G6">
-        <v>0.6753342456918432</v>
+        <v>0.6753342456918361</v>
       </c>
       <c r="H6">
-        <v>0.3451051308332254</v>
+        <v>0.3451051308331969</v>
       </c>
       <c r="I6">
-        <v>1.45497818321283</v>
+        <v>1.454978183212873</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.916476293734547</v>
+        <v>2.91647629373449</v>
       </c>
       <c r="C7">
-        <v>1.070655544031723</v>
+        <v>1.070655544031553</v>
       </c>
       <c r="D7">
-        <v>0.1661934611703231</v>
+        <v>0.1661934611704794</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>1.215766695242507</v>
       </c>
       <c r="G7">
-        <v>0.7014569504006687</v>
+        <v>0.7014569504006758</v>
       </c>
       <c r="H7">
-        <v>0.3516163183110663</v>
+        <v>0.3516163183110592</v>
       </c>
       <c r="I7">
-        <v>1.539091737419454</v>
+        <v>1.53909173741944</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>3.556032724267027</v>
       </c>
       <c r="C8">
-        <v>1.308318313547488</v>
+        <v>1.308318313546977</v>
       </c>
       <c r="D8">
-        <v>0.2029171636835514</v>
+        <v>0.2029171636837361</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0.8245286272301087</v>
       </c>
       <c r="H8">
-        <v>0.3853425955655609</v>
+        <v>0.385342595565568</v>
       </c>
       <c r="I8">
-        <v>1.924795576542024</v>
+        <v>1.92479557654201</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.847005998429609</v>
+        <v>4.847005998429495</v>
       </c>
       <c r="C9">
-        <v>1.792755858545206</v>
+        <v>1.792755858545149</v>
       </c>
       <c r="D9">
-        <v>0.2786200208693117</v>
+        <v>0.278620020869198</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.977408331382648</v>
+        <v>1.977408331382634</v>
       </c>
       <c r="G9">
-        <v>1.102681164321908</v>
+        <v>1.102681164321893</v>
       </c>
       <c r="H9">
-        <v>0.4743183240412208</v>
+        <v>0.474318324041235</v>
       </c>
       <c r="I9">
-        <v>2.759525653381459</v>
+        <v>2.759525653381417</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.833094459395056</v>
+        <v>5.833094459394999</v>
       </c>
       <c r="C10">
-        <v>2.167446017205975</v>
+        <v>2.167446017206146</v>
       </c>
       <c r="D10">
         <v>0.3382325667728452</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.416524685666644</v>
+        <v>2.41652468566663</v>
       </c>
       <c r="G10">
-        <v>1.339890828929754</v>
+        <v>1.33989082892974</v>
       </c>
       <c r="H10">
-        <v>0.5593773041507646</v>
+        <v>0.5593773041507717</v>
       </c>
       <c r="I10">
-        <v>3.454255108512797</v>
+        <v>3.454255108512768</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.294219818233955</v>
+        <v>6.294219818233785</v>
       </c>
       <c r="C11">
-        <v>2.344196856544556</v>
+        <v>2.34419685654467</v>
       </c>
       <c r="D11">
-        <v>0.3667736483060935</v>
+        <v>0.366773648306193</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,13 +769,13 @@
         <v>2.633217403965546</v>
       </c>
       <c r="G11">
-        <v>1.457957403031457</v>
+        <v>1.457957403031443</v>
       </c>
       <c r="H11">
-        <v>0.6040126261958889</v>
+        <v>0.604012626195896</v>
       </c>
       <c r="I11">
-        <v>3.798714682084366</v>
+        <v>3.79871468208438</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>6.471109054749149</v>
       </c>
       <c r="C12">
-        <v>2.412277004063753</v>
+        <v>2.412277004063924</v>
       </c>
       <c r="D12">
-        <v>0.3778514244548745</v>
+        <v>0.377851424454775</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>1.504455746680847</v>
       </c>
       <c r="H12">
-        <v>0.6219497962235181</v>
+        <v>0.6219497962235252</v>
       </c>
       <c r="I12">
-        <v>3.934505931165788</v>
+        <v>3.934505931165745</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.432903114164731</v>
+        <v>6.432903114164674</v>
       </c>
       <c r="C13">
-        <v>2.397559103255674</v>
+        <v>2.397559103255389</v>
       </c>
       <c r="D13">
-        <v>0.3754523482943455</v>
+        <v>0.3754523482941323</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>1.494355793609785</v>
       </c>
       <c r="H13">
-        <v>0.6180373247616302</v>
+        <v>0.618037324761616</v>
       </c>
       <c r="I13">
-        <v>3.904998120988068</v>
+        <v>3.904998120988026</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.308724005570923</v>
+        <v>6.30872400557098</v>
       </c>
       <c r="C14">
-        <v>2.349773221143323</v>
+        <v>2.349773221143437</v>
       </c>
       <c r="D14">
-        <v>0.3676791634170087</v>
+        <v>0.3676791634169092</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.640151748657871</v>
+        <v>2.6401517486579</v>
       </c>
       <c r="G14">
-        <v>1.461744815857799</v>
+        <v>1.46174481585777</v>
       </c>
       <c r="H14">
-        <v>0.6054663965222034</v>
+        <v>0.6054663965222105</v>
       </c>
       <c r="I14">
         <v>3.80977030849732</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.232972252595005</v>
+        <v>6.232972252594948</v>
       </c>
       <c r="C15">
         <v>2.320660805667444</v>
       </c>
       <c r="D15">
-        <v>0.3629553118847753</v>
+        <v>0.3629553118848889</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.604015478845639</v>
+        <v>2.604015478845668</v>
       </c>
       <c r="G15">
-        <v>1.44201379015702</v>
+        <v>1.442013790156992</v>
       </c>
       <c r="H15">
         <v>0.5979072049926302</v>
       </c>
       <c r="I15">
-        <v>3.752182080167998</v>
+        <v>3.752182080167984</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>5.803248771966992</v>
       </c>
       <c r="C16">
-        <v>2.156041095452565</v>
+        <v>2.156041095452906</v>
       </c>
       <c r="D16">
-        <v>0.3364010933364483</v>
+        <v>0.336401093336363</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.402749980963819</v>
+        <v>2.402749980963804</v>
       </c>
       <c r="G16">
-        <v>1.332405595422728</v>
+        <v>1.332405595422742</v>
       </c>
       <c r="H16">
-        <v>0.5565942915271762</v>
+        <v>0.5565942915271904</v>
       </c>
       <c r="I16">
-        <v>3.432415018760409</v>
+        <v>3.432415018760381</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.543140526441562</v>
+        <v>5.543140526441505</v>
       </c>
       <c r="C17">
-        <v>2.056820602583343</v>
+        <v>2.056820602583173</v>
       </c>
       <c r="D17">
-        <v>0.320515749200851</v>
+        <v>0.3205157492007373</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>2.283983476729418</v>
       </c>
       <c r="G17">
-        <v>1.267976143412497</v>
+        <v>1.267976143412511</v>
       </c>
       <c r="H17">
-        <v>0.5328873666725187</v>
+        <v>0.5328873666725116</v>
       </c>
       <c r="I17">
-        <v>3.244310030933775</v>
+        <v>3.244310030933818</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.394680946579115</v>
+        <v>5.394680946579285</v>
       </c>
       <c r="C18">
-        <v>2.000327345350456</v>
+        <v>2.000327345350627</v>
       </c>
       <c r="D18">
-        <v>0.3115079876361051</v>
+        <v>0.3115079876363183</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.217224786536249</v>
+        <v>2.217224786536264</v>
       </c>
       <c r="G18">
-        <v>1.23185064313509</v>
+        <v>1.231850643135104</v>
       </c>
       <c r="H18">
-        <v>0.5197981005795782</v>
+        <v>0.5197981005795924</v>
       </c>
       <c r="I18">
-        <v>3.138697913810716</v>
+        <v>3.138697913810702</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.344599714766332</v>
+        <v>5.344599714766218</v>
       </c>
       <c r="C19">
-        <v>1.981292150888407</v>
+        <v>1.981292150888521</v>
       </c>
       <c r="D19">
-        <v>0.3084786116803002</v>
+        <v>0.3084786116801865</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.194872863181118</v>
+        <v>2.194872863181132</v>
       </c>
       <c r="G19">
-        <v>1.219770587595733</v>
+        <v>1.219770587595718</v>
       </c>
       <c r="H19">
         <v>0.5154553094982148</v>
@@ -1099,22 +1099,22 @@
         <v>5.570707664050929</v>
       </c>
       <c r="C20">
-        <v>2.067321641983824</v>
+        <v>2.067321641983654</v>
       </c>
       <c r="D20">
-        <v>0.3221930047558317</v>
+        <v>0.3221930047558601</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.296461971649293</v>
+        <v>2.296461971649279</v>
       </c>
       <c r="G20">
-        <v>1.274736118309832</v>
+        <v>1.274736118309818</v>
       </c>
       <c r="H20">
-        <v>0.535353294909342</v>
+        <v>0.5353532949093278</v>
       </c>
       <c r="I20">
         <v>3.264059099667435</v>
@@ -1137,25 +1137,25 @@
         <v>6.345132495759799</v>
       </c>
       <c r="C21">
-        <v>2.363775678885872</v>
+        <v>2.363775678885702</v>
       </c>
       <c r="D21">
-        <v>0.3699543834935639</v>
+        <v>0.3699543834935781</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.657590422508747</v>
+        <v>2.657590422508832</v>
       </c>
       <c r="G21">
-        <v>1.471271864068086</v>
+        <v>1.4712718640681</v>
       </c>
       <c r="H21">
-        <v>0.6091290389576898</v>
+        <v>0.6091290389576969</v>
       </c>
       <c r="I21">
-        <v>3.837583609702776</v>
+        <v>3.83758360970279</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.864809085703598</v>
+        <v>6.864809085703712</v>
       </c>
       <c r="C22">
-        <v>2.564382670908799</v>
+        <v>2.564382670909197</v>
       </c>
       <c r="D22">
-        <v>0.4027902804739227</v>
+        <v>0.4027902804740364</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.911541854101614</v>
+        <v>2.911541854101557</v>
       </c>
       <c r="G22">
-        <v>1.610366396791562</v>
+        <v>1.610366396791548</v>
       </c>
       <c r="H22">
-        <v>0.6634965975299068</v>
+        <v>0.6634965975298996</v>
       </c>
       <c r="I22">
-        <v>4.244538344029536</v>
+        <v>4.244538344029579</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.586022312087891</v>
+        <v>6.586022312087948</v>
       </c>
       <c r="C23">
-        <v>2.45658967067601</v>
+        <v>2.456589670675839</v>
       </c>
       <c r="D23">
-        <v>0.3850890790882602</v>
+        <v>0.3850890790883597</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>2.774129782781557</v>
       </c>
       <c r="G23">
-        <v>1.535022980407334</v>
+        <v>1.535022980407348</v>
       </c>
       <c r="H23">
         <v>0.6338446020887361</v>
@@ -1251,16 +1251,16 @@
         <v>5.558241230448857</v>
       </c>
       <c r="C24">
-        <v>2.06257242656369</v>
+        <v>2.062572426563747</v>
       </c>
       <c r="D24">
-        <v>0.3214343329871809</v>
+        <v>0.3214343329872662</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.29081574540983</v>
+        <v>2.290815745409844</v>
       </c>
       <c r="G24">
         <v>1.271677104608074</v>
@@ -1269,7 +1269,7 @@
         <v>0.5342367792605245</v>
       </c>
       <c r="I24">
-        <v>3.255122748612933</v>
+        <v>3.255122748612919</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.49241826880467</v>
+        <v>4.492418268804613</v>
       </c>
       <c r="C25">
-        <v>1.659039433107182</v>
+        <v>1.659039433107068</v>
       </c>
       <c r="D25">
-        <v>0.2575904411469025</v>
+        <v>0.257590441147201</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.82758652610832</v>
+        <v>1.827586526108291</v>
       </c>
       <c r="G25">
-        <v>1.022532302223169</v>
+        <v>1.022532302223155</v>
       </c>
       <c r="H25">
-        <v>0.4472700570135686</v>
+        <v>0.4472700570135828</v>
       </c>
       <c r="I25">
-        <v>2.522329528838654</v>
+        <v>2.522329528838611</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.731336222716664</v>
+        <v>3.73114726818136</v>
       </c>
       <c r="C2">
-        <v>1.373722831114492</v>
+        <v>1.37320507614794</v>
       </c>
       <c r="D2">
-        <v>0.2130656611241761</v>
+        <v>0.2133183343017464</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.520768225267133</v>
+        <v>1.518887477564618</v>
       </c>
       <c r="G2">
-        <v>0.8600417006156675</v>
+        <v>0.2805822191571821</v>
       </c>
       <c r="H2">
-        <v>0.3958462275045349</v>
+        <v>0.5819526137432973</v>
       </c>
       <c r="I2">
-        <v>2.033616454402889</v>
+        <v>0.3950308803453026</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.033548851897535</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.225340678802922</v>
+        <v>3.225218080044783</v>
       </c>
       <c r="C3">
-        <v>1.185247473122899</v>
+        <v>1.184819322422697</v>
       </c>
       <c r="D3">
-        <v>0.1838719696533246</v>
+        <v>0.1840912805865855</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.328376214542359</v>
+        <v>1.326737705878813</v>
       </c>
       <c r="G3">
-        <v>0.759587107134621</v>
+        <v>0.2438697505149889</v>
       </c>
       <c r="H3">
-        <v>0.3669766247015787</v>
+        <v>0.5185037718946077</v>
       </c>
       <c r="I3">
-        <v>1.723175813525145</v>
+        <v>0.3662555207545211</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.723134966530296</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.918157606541683</v>
+        <v>2.918069952520682</v>
       </c>
       <c r="C4">
-        <v>1.071278415425411</v>
+        <v>1.070902113676397</v>
       </c>
       <c r="D4">
-        <v>0.1662894223475604</v>
+        <v>0.1664883168143518</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.216369362225279</v>
+        <v>1.214872731635495</v>
       </c>
       <c r="G4">
-        <v>0.7017665278889567</v>
+        <v>0.2225879254594645</v>
       </c>
       <c r="H4">
-        <v>0.3516950405005517</v>
+        <v>0.4821374670405305</v>
       </c>
       <c r="I4">
-        <v>1.540082909707479</v>
+        <v>0.3510290400694629</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.540054962725009</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.79368703296808</v>
+        <v>2.793612393453031</v>
       </c>
       <c r="C5">
-        <v>1.025192851032358</v>
+        <v>1.024837020234031</v>
       </c>
       <c r="D5">
-        <v>0.1591930272309412</v>
+        <v>0.1593836131738584</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.172066575694473</v>
+        <v>1.170626323216226</v>
       </c>
       <c r="G5">
-        <v>0.67905685330701</v>
+        <v>0.2141918069209083</v>
       </c>
       <c r="H5">
-        <v>0.3460166470194821</v>
+        <v>0.467892571519485</v>
       </c>
       <c r="I5">
-        <v>1.467024539238878</v>
+        <v>0.3453725138721211</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.467001160316229</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.773056985792095</v>
+        <v>2.772984439436925</v>
       </c>
       <c r="C6">
-        <v>1.017559731874371</v>
+        <v>1.017207264195605</v>
       </c>
       <c r="D6">
-        <v>0.1580183600616891</v>
+        <v>0.1582075668964364</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.164785761038615</v>
+        <v>1.163354790767954</v>
       </c>
       <c r="G6">
-        <v>0.6753342456918361</v>
+        <v>0.2128132393936681</v>
       </c>
       <c r="H6">
-        <v>0.3451051308331969</v>
+        <v>0.4655598430893235</v>
       </c>
       <c r="I6">
-        <v>1.454978183212873</v>
+        <v>0.3444645960527453</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.454955526148495</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.91647629373449</v>
+        <v>2.916388819913152</v>
       </c>
       <c r="C7">
-        <v>1.070655544031553</v>
+        <v>1.070279520856928</v>
       </c>
       <c r="D7">
-        <v>0.1661934611704794</v>
+        <v>0.1663922435472074</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.215766695242507</v>
+        <v>1.214270830465367</v>
       </c>
       <c r="G7">
-        <v>0.7014569504006758</v>
+        <v>0.2224736233006723</v>
       </c>
       <c r="H7">
-        <v>0.3516163183110592</v>
+        <v>0.4819431238540446</v>
       </c>
       <c r="I7">
-        <v>1.53909173741944</v>
+        <v>0.3509506150403254</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.539063854603711</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.556032724267027</v>
+        <v>3.555868003940077</v>
       </c>
       <c r="C8">
-        <v>1.308318313546977</v>
+        <v>1.307832202291991</v>
       </c>
       <c r="D8">
-        <v>0.2029171636837361</v>
+        <v>0.2031583160045329</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.453033120892954</v>
+        <v>1.451237507643057</v>
       </c>
       <c r="G8">
-        <v>0.8245286272301087</v>
+        <v>0.2676364133639879</v>
       </c>
       <c r="H8">
-        <v>0.385342595565568</v>
+        <v>0.5594882502193315</v>
       </c>
       <c r="I8">
-        <v>1.92479557654201</v>
+        <v>0.384560386320544</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.924738067049546</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.847005998429495</v>
+        <v>4.846631002789081</v>
       </c>
       <c r="C9">
-        <v>1.792755858545149</v>
+        <v>1.792021061758874</v>
       </c>
       <c r="D9">
-        <v>0.278620020869198</v>
+        <v>0.2789450380709013</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.977408331382634</v>
+        <v>1.974954588710929</v>
       </c>
       <c r="G9">
-        <v>1.102681164321893</v>
+        <v>0.3683214276556157</v>
       </c>
       <c r="H9">
-        <v>0.474318324041235</v>
+        <v>0.736165437896446</v>
       </c>
       <c r="I9">
-        <v>2.759525653381417</v>
+        <v>0.4732798531861633</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.759369644016317</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.833094459394999</v>
+        <v>5.832506249331402</v>
       </c>
       <c r="C10">
-        <v>2.167446017206146</v>
+        <v>2.166494772793953</v>
       </c>
       <c r="D10">
-        <v>0.3382325667728452</v>
+        <v>0.3386198820941075</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.41652468566663</v>
+        <v>2.413515757508648</v>
       </c>
       <c r="G10">
-        <v>1.33989082892974</v>
+        <v>0.4532599969114273</v>
       </c>
       <c r="H10">
-        <v>0.5593773041507717</v>
+        <v>0.8877800900484516</v>
       </c>
       <c r="I10">
-        <v>3.454255108512768</v>
+        <v>0.5581231269954756</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.453976100297481</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.294219818233785</v>
+        <v>6.29351460689935</v>
       </c>
       <c r="C11">
-        <v>2.34419685654467</v>
+        <v>2.34313545169698</v>
       </c>
       <c r="D11">
-        <v>0.366773648306193</v>
+        <v>0.3671894131152555</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.633217403965546</v>
+        <v>2.629931096357012</v>
       </c>
       <c r="G11">
-        <v>1.457957403031443</v>
+        <v>0.4953200493095977</v>
       </c>
       <c r="H11">
-        <v>0.604012626195896</v>
+        <v>0.9634626652511287</v>
       </c>
       <c r="I11">
-        <v>3.79871468208438</v>
+        <v>0.602651058290796</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.798358686435179</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.471109054749149</v>
+        <v>6.47035580422363</v>
       </c>
       <c r="C12">
-        <v>2.412277004063924</v>
+        <v>2.41117168534322</v>
       </c>
       <c r="D12">
-        <v>0.377851424454775</v>
+        <v>0.3782779610196769</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.718284289566384</v>
+        <v>2.71488827075683</v>
       </c>
       <c r="G12">
-        <v>1.504455746680847</v>
+        <v>0.5118521470393063</v>
       </c>
       <c r="H12">
-        <v>0.6219497962235252</v>
+        <v>0.9933015822902576</v>
       </c>
       <c r="I12">
-        <v>3.934505931165745</v>
+        <v>0.6205458424763535</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.93411636615312</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.432903114164674</v>
+        <v>6.432160392528999</v>
       </c>
       <c r="C13">
-        <v>2.397559103255389</v>
+        <v>2.396463350074839</v>
       </c>
       <c r="D13">
-        <v>0.3754523482941323</v>
+        <v>0.3758765655167622</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.699818941313566</v>
+        <v>2.696446780393558</v>
       </c>
       <c r="G13">
-        <v>1.494355793609785</v>
+        <v>0.5082626518761231</v>
       </c>
       <c r="H13">
-        <v>0.618037324761616</v>
+        <v>0.9868187736390581</v>
       </c>
       <c r="I13">
-        <v>3.904998120988026</v>
+        <v>0.6166425835742118</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.904616011804862</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.30872400557098</v>
+        <v>6.308014922769701</v>
       </c>
       <c r="C14">
-        <v>2.349773221143437</v>
+        <v>2.348708251116534</v>
       </c>
       <c r="D14">
-        <v>0.3676791634169092</v>
+        <v>0.3680958146202471</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.6401517486579</v>
+        <v>2.636856516400883</v>
       </c>
       <c r="G14">
-        <v>1.46174481585777</v>
+        <v>0.4966672830313144</v>
       </c>
       <c r="H14">
-        <v>0.6054663965222105</v>
+        <v>0.9658924692027</v>
       </c>
       <c r="I14">
-        <v>3.80977030849732</v>
+        <v>0.6041013786350362</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3.80941164999426</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.232972252594948</v>
+        <v>6.232283258149835</v>
       </c>
       <c r="C15">
-        <v>2.320660805667444</v>
+        <v>2.319614386648482</v>
       </c>
       <c r="D15">
-        <v>0.3629553118848889</v>
+        <v>0.3633673276682146</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.604015478845668</v>
+        <v>2.600766719774555</v>
       </c>
       <c r="G15">
-        <v>1.442013790156992</v>
+        <v>0.4896473923959093</v>
       </c>
       <c r="H15">
-        <v>0.5979072049926302</v>
+        <v>0.9532353937971152</v>
       </c>
       <c r="I15">
-        <v>3.752182080167984</v>
+        <v>0.596560155965939</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3.751837158062486</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.803248771966992</v>
+        <v>5.802667738452044</v>
       </c>
       <c r="C16">
-        <v>2.156041095452906</v>
+        <v>2.155096774441688</v>
       </c>
       <c r="D16">
-        <v>0.336401093336363</v>
+        <v>0.3367865505359049</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.402749980963804</v>
+        <v>2.399758594414138</v>
       </c>
       <c r="G16">
-        <v>1.332405595422742</v>
+        <v>0.4505891506222639</v>
       </c>
       <c r="H16">
-        <v>0.5565942915271904</v>
+        <v>0.882986283684474</v>
       </c>
       <c r="I16">
-        <v>3.432415018760381</v>
+        <v>0.5553469157809516</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>3.432140513890218</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.543140526441505</v>
+        <v>5.542620069679629</v>
       </c>
       <c r="C17">
-        <v>2.056820602583173</v>
+        <v>2.055935600722762</v>
       </c>
       <c r="D17">
-        <v>0.3205157492007373</v>
+        <v>0.3208849343596967</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.283983476729418</v>
+        <v>2.281142943535968</v>
       </c>
       <c r="G17">
-        <v>1.267976143412511</v>
+        <v>0.4275765232211626</v>
       </c>
       <c r="H17">
-        <v>0.5328873666725116</v>
+        <v>0.8417468950509317</v>
       </c>
       <c r="I17">
-        <v>3.244310030933818</v>
+        <v>0.5316985245273216</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3.244072533442804</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.394680946579285</v>
+        <v>5.394193512535708</v>
       </c>
       <c r="C18">
-        <v>2.000327345350627</v>
+        <v>1.99947539989671</v>
       </c>
       <c r="D18">
-        <v>0.3115079876363183</v>
+        <v>0.3118678255801939</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.217224786536264</v>
+        <v>2.214468766669924</v>
       </c>
       <c r="G18">
-        <v>1.231850643135104</v>
+        <v>0.4146541653282156</v>
       </c>
       <c r="H18">
-        <v>0.5197981005795924</v>
+        <v>0.8186435000771013</v>
       </c>
       <c r="I18">
-        <v>3.138697913810702</v>
+        <v>0.5186420821762709</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3.138479832973331</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.344599714766218</v>
+        <v>5.344123171063984</v>
       </c>
       <c r="C19">
-        <v>1.981292150888521</v>
+        <v>1.980451228489358</v>
       </c>
       <c r="D19">
-        <v>0.3084786116801865</v>
+        <v>0.3088352871514815</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.194872863181132</v>
+        <v>2.192145099089217</v>
       </c>
       <c r="G19">
-        <v>1.219770587595718</v>
+        <v>0.4103297771994363</v>
       </c>
       <c r="H19">
-        <v>0.5154553094982148</v>
+        <v>0.8109212351891699</v>
       </c>
       <c r="I19">
-        <v>3.103350363378553</v>
+        <v>0.5143102697581554</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.103138568356826</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.570707664050929</v>
+        <v>5.570180952449505</v>
       </c>
       <c r="C20">
-        <v>2.067321641983654</v>
+        <v>2.066430438678822</v>
       </c>
       <c r="D20">
-        <v>0.3221930047558601</v>
+        <v>0.3225639209272373</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.296461971649279</v>
+        <v>2.293605619958043</v>
       </c>
       <c r="G20">
-        <v>1.274736118309818</v>
+        <v>0.4299930378515171</v>
       </c>
       <c r="H20">
-        <v>0.5353532949093278</v>
+        <v>0.8460717123631412</v>
       </c>
       <c r="I20">
-        <v>3.264059099667435</v>
+        <v>0.5341583114620363</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.263817864206075</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.345132495759799</v>
+        <v>6.34441364198517</v>
       </c>
       <c r="C21">
-        <v>2.363775678885702</v>
+        <v>2.362701731750349</v>
       </c>
       <c r="D21">
-        <v>0.3699543834935781</v>
+        <v>0.3703732572913339</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.657590422508832</v>
+        <v>2.654272731985515</v>
       </c>
       <c r="G21">
-        <v>1.4712718640681</v>
+        <v>0.5000556649321766</v>
       </c>
       <c r="H21">
-        <v>0.6091290389576969</v>
+        <v>0.9720050406693161</v>
       </c>
       <c r="I21">
-        <v>3.83758360970279</v>
+        <v>0.6077553409934495</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.837218197512783</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.864809085703712</v>
+        <v>6.863942263973001</v>
       </c>
       <c r="C22">
-        <v>2.564382670909197</v>
+        <v>2.563176093238894</v>
       </c>
       <c r="D22">
-        <v>0.4027902804740364</v>
+        <v>0.4032404641276059</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.911541854101557</v>
+        <v>2.907894583780177</v>
       </c>
       <c r="G22">
-        <v>1.610366396791548</v>
+        <v>0.5494466401660674</v>
       </c>
       <c r="H22">
-        <v>0.6634965975298996</v>
+        <v>1.061327942565768</v>
       </c>
       <c r="I22">
-        <v>4.244538344029579</v>
+        <v>0.6619957948777753</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.244064808989236</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.586022312087948</v>
+        <v>6.585236876973397</v>
       </c>
       <c r="C23">
-        <v>2.456589670675839</v>
+        <v>2.455455308332716</v>
       </c>
       <c r="D23">
-        <v>0.3850890790883597</v>
+        <v>0.3855225665530071</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.774129782781557</v>
+        <v>2.77066145806171</v>
       </c>
       <c r="G23">
-        <v>1.535022980407348</v>
+        <v>0.5227108778665155</v>
       </c>
       <c r="H23">
-        <v>0.6338446020887361</v>
+        <v>1.01292642588281</v>
       </c>
       <c r="I23">
-        <v>4.023862470487217</v>
+        <v>0.6324127444566869</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.023449770615244</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.558241230448857</v>
+        <v>5.557717352217878</v>
       </c>
       <c r="C24">
-        <v>2.062572426563747</v>
+        <v>2.061684030156641</v>
       </c>
       <c r="D24">
-        <v>0.3214343329872662</v>
+        <v>0.3218044665425452</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.290815745409844</v>
+        <v>2.287966552080675</v>
       </c>
       <c r="G24">
-        <v>1.271677104608074</v>
+        <v>0.4288995806443126</v>
       </c>
       <c r="H24">
-        <v>0.5342367792605245</v>
+        <v>0.8441145913246544</v>
       </c>
       <c r="I24">
-        <v>3.255122748612919</v>
+        <v>0.5330445748475867</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.25488320878496</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.492418268804613</v>
+        <v>4.492108489042437</v>
       </c>
       <c r="C25">
-        <v>1.659039433107068</v>
+        <v>1.658376645873034</v>
       </c>
       <c r="D25">
-        <v>0.257590441147201</v>
+        <v>0.2578926571463853</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.827586526108291</v>
+        <v>1.825320900911095</v>
       </c>
       <c r="G25">
-        <v>1.022532302223155</v>
+        <v>0.339455997613527</v>
       </c>
       <c r="H25">
-        <v>0.4472700570135828</v>
+        <v>0.6851066573281628</v>
       </c>
       <c r="I25">
-        <v>2.522329528838611</v>
+        <v>0.4463048227991777</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.522206605999799</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.73114726818136</v>
+        <v>2.349046771984035</v>
       </c>
       <c r="C2">
-        <v>1.37320507614794</v>
+        <v>0.2727294790198584</v>
       </c>
       <c r="D2">
-        <v>0.2133183343017464</v>
+        <v>0.1035421305246587</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.518887477564618</v>
+        <v>7.242312548684737</v>
       </c>
       <c r="G2">
-        <v>0.2805822191571821</v>
+        <v>0.0008520578999076212</v>
       </c>
       <c r="H2">
-        <v>0.5819526137432973</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3950308803453026</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.033548851897535</v>
+        <v>0.1601442604534853</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5370321883035558</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1462881355320178</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.225218080044783</v>
+        <v>2.075547660136124</v>
       </c>
       <c r="C3">
-        <v>1.184819322422697</v>
+        <v>0.2326672728338224</v>
       </c>
       <c r="D3">
-        <v>0.1840912805865855</v>
+        <v>0.08973303675831801</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.326737705878813</v>
+        <v>6.571451289041846</v>
       </c>
       <c r="G3">
-        <v>0.2438697505149889</v>
+        <v>0.0008630473004327299</v>
       </c>
       <c r="H3">
-        <v>0.5185037718946077</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3662555207545211</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.723134966530296</v>
+        <v>0.1515019935650415</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4691203839387867</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1347324229674811</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.918069952520682</v>
+        <v>1.913468513193038</v>
       </c>
       <c r="C4">
-        <v>1.070902113676397</v>
+        <v>0.2087123403630642</v>
       </c>
       <c r="D4">
-        <v>0.1664883168143518</v>
+        <v>0.08142594915615575</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.214872731635495</v>
+        <v>6.16962192186503</v>
       </c>
       <c r="G4">
-        <v>0.2225879254594645</v>
+        <v>0.0008699469832041412</v>
       </c>
       <c r="H4">
-        <v>0.4821374670405305</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3510290400694629</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.540054962725009</v>
+        <v>0.1463429405605225</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4287898309493912</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1280518490193643</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.793612393453031</v>
+        <v>1.848732386833007</v>
       </c>
       <c r="C5">
-        <v>1.024837020234031</v>
+        <v>0.1990878372026401</v>
       </c>
       <c r="D5">
-        <v>0.1593836131738584</v>
+        <v>0.07807657445950156</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.170626323216226</v>
+        <v>6.008075032928218</v>
       </c>
       <c r="G5">
-        <v>0.2141918069209083</v>
+        <v>0.00087279975328037</v>
       </c>
       <c r="H5">
-        <v>0.467892571519485</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3453725138721211</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.467001160316229</v>
+        <v>0.144273033462099</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4126589443239226</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1254252848655852</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.772984439436925</v>
+        <v>1.838057933446748</v>
       </c>
       <c r="C6">
-        <v>1.017207264195605</v>
+        <v>0.1974973230170036</v>
       </c>
       <c r="D6">
-        <v>0.1582075668964364</v>
+        <v>0.07752237559606101</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.163354790767954</v>
+        <v>5.981374135703192</v>
       </c>
       <c r="G6">
-        <v>0.2128132393936681</v>
+        <v>0.0008732760134094882</v>
       </c>
       <c r="H6">
-        <v>0.4655598430893235</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3444645960527453</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.454955526148495</v>
+        <v>0.1439311606285187</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4099977065866298</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1249947026161919</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.916388819913152</v>
+        <v>1.912590343221211</v>
       </c>
       <c r="C7">
-        <v>1.070279520856928</v>
+        <v>0.2085820153930626</v>
       </c>
       <c r="D7">
-        <v>0.1663922435472074</v>
+        <v>0.08138064245342491</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.214270830465367</v>
+        <v>6.167434746334834</v>
       </c>
       <c r="G7">
-        <v>0.2224736233006723</v>
+        <v>0.0008699852867187627</v>
       </c>
       <c r="H7">
-        <v>0.4819431238540446</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3509506150403254</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.539063854603711</v>
+        <v>0.1463148994445547</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4285711023068473</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1280160488111264</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.555868003940077</v>
+        <v>2.253429197019443</v>
       </c>
       <c r="C8">
-        <v>1.307832202291991</v>
+        <v>0.2587669098074912</v>
       </c>
       <c r="D8">
-        <v>0.2031583160045329</v>
+        <v>0.09874044666855752</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.451237507643057</v>
+        <v>7.008695776172885</v>
       </c>
       <c r="G8">
-        <v>0.2676364133639879</v>
+        <v>0.0008558172609769195</v>
       </c>
       <c r="H8">
-        <v>0.5594882502193315</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.384560386320544</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1.924738067049546</v>
+        <v>0.1571309135209447</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5133070957326424</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1422122872395235</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.846631002789081</v>
+        <v>2.976385468905335</v>
       </c>
       <c r="C9">
-        <v>1.792021061758874</v>
+        <v>0.363547795416622</v>
       </c>
       <c r="D9">
-        <v>0.2789450380709013</v>
+        <v>0.134521015284264</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.974954588710929</v>
+        <v>8.755418283565433</v>
       </c>
       <c r="G9">
-        <v>0.3683214276556157</v>
+        <v>0.0008290967870087254</v>
       </c>
       <c r="H9">
-        <v>0.736165437896446</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4732798531861633</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.759369644016317</v>
+        <v>0.1797447822752503</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6923689334958212</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.173775856984463</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.832506249331402</v>
+        <v>3.553997217288327</v>
       </c>
       <c r="C10">
-        <v>2.166494772793953</v>
+        <v>0.4464695319829559</v>
       </c>
       <c r="D10">
-        <v>0.3386198820941075</v>
+        <v>0.1624712724455719</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.413515757508648</v>
+        <v>10.12519856401249</v>
       </c>
       <c r="G10">
-        <v>0.4532599969114273</v>
+        <v>0.0008098823110276305</v>
       </c>
       <c r="H10">
-        <v>0.8877800900484516</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5581231269954756</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3.453976100297481</v>
+        <v>0.1975917465967427</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8350972719327956</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1999397154506681</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.29351460689935</v>
+        <v>3.830428932351651</v>
       </c>
       <c r="C11">
-        <v>2.34313545169698</v>
+        <v>0.4860453496315245</v>
       </c>
       <c r="D11">
-        <v>0.3671894131152555</v>
+        <v>0.1757095310919112</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.629931096357012</v>
+        <v>10.77445463744442</v>
       </c>
       <c r="G11">
-        <v>0.4953200493095977</v>
+        <v>0.0008011699103380553</v>
       </c>
       <c r="H11">
-        <v>0.9634626652511287</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.602651058290796</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.798358686435179</v>
+        <v>0.206079606855333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9033529250347385</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.212678907762097</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.47035580422363</v>
+        <v>3.937433280465314</v>
       </c>
       <c r="C12">
-        <v>2.41117168534322</v>
+        <v>0.5013556635309726</v>
       </c>
       <c r="D12">
-        <v>0.3782779610196769</v>
+        <v>0.1808140561620775</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.71488827075683</v>
+        <v>11.02480335000524</v>
       </c>
       <c r="G12">
-        <v>0.5118521470393063</v>
+        <v>0.0007978686587672831</v>
       </c>
       <c r="H12">
-        <v>0.9933015822902576</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6205458424763535</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3.93411636615312</v>
+        <v>0.2093569617022837</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9297690054544461</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2176425500010026</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.432160392528999</v>
+        <v>3.914278140506667</v>
       </c>
       <c r="C13">
-        <v>2.396463350074839</v>
+        <v>0.4980428887150197</v>
       </c>
       <c r="D13">
-        <v>0.3758765655167622</v>
+        <v>0.1797103487632086</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.696446780393558</v>
+        <v>10.97067362434342</v>
       </c>
       <c r="G13">
-        <v>0.5082626518761231</v>
+        <v>0.0007985798426718131</v>
       </c>
       <c r="H13">
-        <v>0.9868187736390581</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6166425835742118</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3.904616011804862</v>
+        <v>0.2086481351870546</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9240529009350382</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2165669904525771</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.308014922769701</v>
+        <v>3.83918335079926</v>
       </c>
       <c r="C14">
-        <v>2.348708251116534</v>
+        <v>0.4872980839650722</v>
       </c>
       <c r="D14">
-        <v>0.3680958146202471</v>
+        <v>0.1761275473067627</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.636856516400883</v>
+        <v>10.79495637033114</v>
       </c>
       <c r="G14">
-        <v>0.4966672830313144</v>
+        <v>0.0008008983944086307</v>
       </c>
       <c r="H14">
-        <v>0.9658924692027</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6041013786350362</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3.80941164999426</v>
+        <v>0.206347906511759</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9055142090817156</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2130843500273158</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.232283258149835</v>
+        <v>3.793500230063955</v>
       </c>
       <c r="C15">
-        <v>2.319614386648482</v>
+        <v>0.4807606242565612</v>
       </c>
       <c r="D15">
-        <v>0.3633673276682146</v>
+        <v>0.1739454195183612</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.600766719774555</v>
+        <v>10.68793294431487</v>
       </c>
       <c r="G15">
-        <v>0.4896473923959093</v>
+        <v>0.0008023181073026908</v>
       </c>
       <c r="H15">
-        <v>0.9532353937971152</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.596560155965939</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3.751837158062486</v>
+        <v>0.2049475074699814</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8942358056342101</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2109699376718766</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.802667738452044</v>
+        <v>3.536236240058315</v>
       </c>
       <c r="C16">
-        <v>2.155096774441688</v>
+        <v>0.4439251300244678</v>
       </c>
       <c r="D16">
-        <v>0.3367865505359049</v>
+        <v>0.1616179801884243</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.399758594414138</v>
+        <v>10.08335386877872</v>
       </c>
       <c r="G16">
-        <v>0.4505891506222639</v>
+        <v>0.0008104517560126662</v>
       </c>
       <c r="H16">
-        <v>0.882986283684474</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5553469157809516</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3.432140513890218</v>
+        <v>0.1970452995714567</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8307109625986868</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1991255925425861</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.542620069679629</v>
+        <v>3.38215222687603</v>
       </c>
       <c r="C17">
-        <v>2.055935600722762</v>
+        <v>0.4218402574906008</v>
       </c>
       <c r="D17">
-        <v>0.3208849343596967</v>
+        <v>0.1542002929317334</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.281142943535968</v>
+        <v>9.719641832344024</v>
       </c>
       <c r="G17">
-        <v>0.4275765232211626</v>
+        <v>0.0008154446940767757</v>
       </c>
       <c r="H17">
-        <v>0.8417468950509317</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5316985245273216</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3.244072533442804</v>
+        <v>0.1922987852904967</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7926525797454786</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1920865468194535</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.394193512535708</v>
+        <v>3.294789384417754</v>
       </c>
       <c r="C18">
-        <v>1.99947539989671</v>
+        <v>0.4093081980479383</v>
       </c>
       <c r="D18">
-        <v>0.3118678255801939</v>
+        <v>0.1499820010268138</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.214468766669924</v>
+        <v>9.51285415843958</v>
       </c>
       <c r="G18">
-        <v>0.4146541653282156</v>
+        <v>0.0008183195905797057</v>
       </c>
       <c r="H18">
-        <v>0.8186435000771013</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5186420821762709</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.138479832973331</v>
+        <v>0.1896027721172402</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.771069380712504</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1881153433402147</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.344123171063984</v>
+        <v>3.26541663241278</v>
       </c>
       <c r="C19">
-        <v>1.980451228489358</v>
+        <v>0.405092773790642</v>
       </c>
       <c r="D19">
-        <v>0.3088352871514815</v>
+        <v>0.1485615815036994</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.192145099089217</v>
+        <v>9.443232933387804</v>
       </c>
       <c r="G19">
-        <v>0.4103297771994363</v>
+        <v>0.0008192936827329245</v>
       </c>
       <c r="H19">
-        <v>0.8109212351891699</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5143102697581554</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>3.103138568356826</v>
+        <v>0.188695516335919</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7638118903309703</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.186783534179483</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.570180952449505</v>
+        <v>3.398421689306531</v>
       </c>
       <c r="C20">
-        <v>2.066430438678822</v>
+        <v>0.4241731939924307</v>
       </c>
       <c r="D20">
-        <v>0.3225639209272373</v>
+        <v>0.1549848246078227</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.293605619958043</v>
+        <v>9.758105270626316</v>
       </c>
       <c r="G20">
-        <v>0.4299930378515171</v>
+        <v>0.0008149129090144382</v>
       </c>
       <c r="H20">
-        <v>0.8460717123631412</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5341583114620363</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3.263817864206075</v>
+        <v>0.1928004672545853</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7966715815849739</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.192827718651202</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.34441364198517</v>
+        <v>3.861174214585219</v>
       </c>
       <c r="C21">
-        <v>2.362701731750349</v>
+        <v>0.4904447978254325</v>
       </c>
       <c r="D21">
-        <v>0.3703732572913339</v>
+        <v>0.1771772772277416</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.654272731985515</v>
+        <v>10.84644050007557</v>
       </c>
       <c r="G21">
-        <v>0.5000556649321766</v>
+        <v>0.0008002174895574975</v>
       </c>
       <c r="H21">
-        <v>0.9720050406693161</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6077553409934495</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3.837218197512783</v>
+        <v>0.2070217355758075</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9109432238526267</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.214103327754728</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.863942263973001</v>
+        <v>4.17738058695727</v>
       </c>
       <c r="C22">
-        <v>2.563176093238894</v>
+        <v>0.5356790964973186</v>
       </c>
       <c r="D22">
-        <v>0.4032404641276059</v>
+        <v>0.1922242032252512</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.907894583780177</v>
+        <v>11.58433287409088</v>
       </c>
       <c r="G22">
-        <v>0.5494466401660674</v>
+        <v>0.0007905975661883443</v>
       </c>
       <c r="H22">
-        <v>1.061327942565768</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6619957948777753</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.244064808989236</v>
+        <v>0.21669045193768</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9889981118357412</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2288332785936404</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.585236876973397</v>
+        <v>4.007219297809456</v>
       </c>
       <c r="C23">
-        <v>2.455455308332716</v>
+        <v>0.5113390962899587</v>
       </c>
       <c r="D23">
-        <v>0.3855225665530071</v>
+        <v>0.1841375958436373</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.77066145806171</v>
+        <v>11.18779642262587</v>
       </c>
       <c r="G23">
-        <v>0.5227108778665155</v>
+        <v>0.0007957356384787842</v>
       </c>
       <c r="H23">
-        <v>1.01292642588281</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6324127444566869</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.023449770615244</v>
+        <v>0.2114920250519035</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9469959193628199</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2208888643616973</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.557717352217878</v>
+        <v>3.391062485046859</v>
       </c>
       <c r="C24">
-        <v>2.061684030156641</v>
+        <v>0.4231179641694496</v>
       </c>
       <c r="D24">
-        <v>0.3218044665425452</v>
+        <v>0.1546299950079799</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.287966552080675</v>
+        <v>9.740708792363336</v>
       </c>
       <c r="G24">
-        <v>0.4288995806443126</v>
+        <v>0.0008151533149132085</v>
       </c>
       <c r="H24">
-        <v>0.8441145913246544</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5330445748475867</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3.25488320878496</v>
+        <v>0.1925735553459376</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7948536721659138</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1924924006770539</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.492108489042437</v>
+        <v>2.773717456590759</v>
       </c>
       <c r="C25">
-        <v>1.658376645873034</v>
+        <v>0.3343263047572691</v>
       </c>
       <c r="D25">
-        <v>0.2578926571463853</v>
+        <v>0.1245981659457414</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.825320900911095</v>
+        <v>8.269903829807333</v>
       </c>
       <c r="G25">
-        <v>0.339455997613527</v>
+        <v>0.0008362335452161664</v>
       </c>
       <c r="H25">
-        <v>0.6851066573281628</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4463048227991777</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.522206605999799</v>
+        <v>0.1734410865958509</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6422347257138128</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.164771837944734</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.349046771984035</v>
+        <v>4.091597877812092</v>
       </c>
       <c r="C2">
-        <v>0.2727294790198584</v>
+        <v>0.7062560834046394</v>
       </c>
       <c r="D2">
-        <v>0.1035421305246587</v>
+        <v>0.02984540745590891</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.242312548684737</v>
+        <v>3.074101711948515</v>
       </c>
       <c r="G2">
-        <v>0.0008520578999076212</v>
+        <v>0.0008360435608421598</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1601442604534853</v>
+        <v>0.06391423049904255</v>
       </c>
       <c r="K2">
-        <v>0.5370321883035558</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1462881355320178</v>
+        <v>0.164947204834462</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6361719899852503</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.750509875513785</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.075547660136124</v>
+        <v>3.607017861247073</v>
       </c>
       <c r="C3">
-        <v>0.2326672728338224</v>
+        <v>0.6076588084480363</v>
       </c>
       <c r="D3">
-        <v>0.08973303675831801</v>
+        <v>0.02541570900565659</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.571451289041846</v>
+        <v>2.879884280436073</v>
       </c>
       <c r="G3">
-        <v>0.0008630473004327299</v>
+        <v>0.000845906012116236</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1515019935650415</v>
+        <v>0.06406660643630246</v>
       </c>
       <c r="K3">
-        <v>0.4691203839387867</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1347324229674811</v>
+        <v>0.1531408698692971</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5656878531753406</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.788397744342632</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.913468513193038</v>
+        <v>3.316352307106229</v>
       </c>
       <c r="C4">
-        <v>0.2087123403630642</v>
+        <v>0.5482272574757303</v>
       </c>
       <c r="D4">
-        <v>0.08142594915615575</v>
+        <v>0.02279721854289818</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.16962192186503</v>
+        <v>2.766655142824249</v>
       </c>
       <c r="G4">
-        <v>0.0008699469832041412</v>
+        <v>0.0008521199654645209</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1463429405605225</v>
+        <v>0.06416947759436553</v>
       </c>
       <c r="K4">
-        <v>0.4287898309493912</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1280518490193643</v>
+        <v>0.146130659329323</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5234663922160152</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.813845264172016</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.848732386833007</v>
+        <v>3.199435025422133</v>
       </c>
       <c r="C5">
-        <v>0.1990878372026401</v>
+        <v>0.5242460838284728</v>
       </c>
       <c r="D5">
-        <v>0.07807657445950156</v>
+        <v>0.02175193090612737</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.008075032928218</v>
+        <v>2.721896661839608</v>
       </c>
       <c r="G5">
-        <v>0.00087279975328037</v>
+        <v>0.0008546940854056479</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.144273033462099</v>
+        <v>0.06421362347258963</v>
       </c>
       <c r="K5">
-        <v>0.4126589443239226</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1254252848655852</v>
+        <v>0.1433293560369364</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5064980609272425</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.824736516772361</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.838057933446748</v>
+        <v>3.180108085882011</v>
       </c>
       <c r="C6">
-        <v>0.1974973230170036</v>
+        <v>0.520277258437261</v>
       </c>
       <c r="D6">
-        <v>0.07752237559606101</v>
+        <v>0.02157957456611825</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.981374135703192</v>
+        <v>2.71454449279517</v>
       </c>
       <c r="G6">
-        <v>0.0008732760134094882</v>
+        <v>0.0008551241027506817</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1439311606285187</v>
+        <v>0.06422108512073255</v>
       </c>
       <c r="K6">
-        <v>0.4099977065866298</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1249947026161919</v>
+        <v>0.1428674198804458</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5036940315833363</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.826575706520231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.912590343221211</v>
+        <v>3.314769565951394</v>
       </c>
       <c r="C7">
-        <v>0.2085820153930626</v>
+        <v>0.5479029279782992</v>
       </c>
       <c r="D7">
-        <v>0.08138064245342491</v>
+        <v>0.02278303794068393</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.167434746334834</v>
+        <v>2.766046077783727</v>
       </c>
       <c r="G7">
-        <v>0.0008699852867187627</v>
+        <v>0.0008521545088719355</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1463148994445547</v>
+        <v>0.06417006409516457</v>
       </c>
       <c r="K7">
-        <v>0.4285711023068473</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1280160488111264</v>
+        <v>0.1460926614753006</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5232366263277015</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.813990072399392</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.253429197019443</v>
+        <v>3.922965519838328</v>
       </c>
       <c r="C8">
-        <v>0.2587669098074912</v>
+        <v>0.6720040570837682</v>
       </c>
       <c r="D8">
-        <v>0.09874044666855752</v>
+        <v>0.02829465105075002</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.008695776172885</v>
+        <v>3.005803373066556</v>
       </c>
       <c r="G8">
-        <v>0.0008558172609769195</v>
+        <v>0.000839412560842856</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1571309135209447</v>
+        <v>0.0639647621627617</v>
       </c>
       <c r="K8">
-        <v>0.5133070957326424</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1422122872395235</v>
+        <v>0.1608238489432523</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.611632010050613</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.763102576275713</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.976385468905335</v>
+        <v>5.180027258931887</v>
       </c>
       <c r="C9">
-        <v>0.363547795416622</v>
+        <v>0.926223448367324</v>
       </c>
       <c r="D9">
-        <v>0.134521015284264</v>
+        <v>0.04009702070010945</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.755418283565433</v>
+        <v>3.53033276319124</v>
       </c>
       <c r="G9">
-        <v>0.0008290967870087254</v>
+        <v>0.0008155789650219692</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1797447822752503</v>
+        <v>0.06364220507642226</v>
       </c>
       <c r="K9">
-        <v>0.6923689334958212</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.173775856984463</v>
+        <v>0.1918427324921339</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7947836934061812</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.68205451795869</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.553997217288327</v>
+        <v>6.15849664949701</v>
       </c>
       <c r="C10">
-        <v>0.4464695319829559</v>
+        <v>1.122905044373169</v>
       </c>
       <c r="D10">
-        <v>0.1624712724455719</v>
+        <v>0.04967892569484889</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.12519856401249</v>
+        <v>3.959261481325598</v>
       </c>
       <c r="G10">
-        <v>0.0008098823110276305</v>
+        <v>0.0007986094102828989</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1975917465967427</v>
+        <v>0.06346431157153809</v>
       </c>
       <c r="K10">
-        <v>0.8350972719327956</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1999397154506681</v>
+        <v>0.2163026960978982</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9375844173838601</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.636163771896719</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.830428932351651</v>
+        <v>6.619650349503218</v>
       </c>
       <c r="C11">
-        <v>0.4860453496315245</v>
+        <v>1.215398606413657</v>
       </c>
       <c r="D11">
-        <v>0.1757095310919112</v>
+        <v>0.05431745721015346</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.77445463744442</v>
+        <v>4.1665805864493</v>
       </c>
       <c r="G11">
-        <v>0.0008011699103380553</v>
+        <v>0.0007909649013250784</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.206079606855333</v>
+        <v>0.06339913499516925</v>
       </c>
       <c r="K11">
-        <v>0.9033529250347385</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.212678907762097</v>
+        <v>0.2278896001397186</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.004928541594246</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.618840109807095</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.937433280465314</v>
+        <v>6.796984578066315</v>
       </c>
       <c r="C12">
-        <v>0.5013556635309726</v>
+        <v>1.250943268118249</v>
       </c>
       <c r="D12">
-        <v>0.1808140561620775</v>
+        <v>0.05612233850145287</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.02480335000524</v>
+        <v>4.24710825134062</v>
       </c>
       <c r="G12">
-        <v>0.0007978686587672831</v>
+        <v>0.0007880768330076364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2093569617022837</v>
+        <v>0.06337702541958823</v>
       </c>
       <c r="K12">
-        <v>0.9297690054544461</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2176425500010026</v>
+        <v>0.2323527848926261</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.030830402132445</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.612849112356912</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.914278140506667</v>
+        <v>6.758665182849995</v>
       </c>
       <c r="C13">
-        <v>0.4980428887150197</v>
+        <v>1.243263501381932</v>
       </c>
       <c r="D13">
-        <v>0.1797103487632086</v>
+        <v>0.05573132944586945</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.97067362434342</v>
+        <v>4.229670651285829</v>
       </c>
       <c r="G13">
-        <v>0.0007985798426718131</v>
+        <v>0.0007886986011345067</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2086481351870546</v>
+        <v>0.06338166719698712</v>
       </c>
       <c r="K13">
-        <v>0.9240529009350382</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2165669904525771</v>
+        <v>0.2313880383933622</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.025233174148511</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.614113046966651</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.83918335079926</v>
+        <v>6.634183033183945</v>
       </c>
       <c r="C14">
-        <v>0.4872980839650722</v>
+        <v>1.218311946714721</v>
       </c>
       <c r="D14">
-        <v>0.1761275473067627</v>
+        <v>0.05446492498249</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.79495637033114</v>
+        <v>4.173163486765816</v>
       </c>
       <c r="G14">
-        <v>0.0008008983944086307</v>
+        <v>0.0007907271884398659</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.206347906511759</v>
+        <v>0.06339726251498146</v>
       </c>
       <c r="K14">
-        <v>0.9055142090817156</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2130843500273158</v>
+        <v>0.2282552181653728</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.007051125969014</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.618335455971035</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.793500230063955</v>
+        <v>6.55829925467998</v>
       </c>
       <c r="C15">
-        <v>0.4807606242565612</v>
+        <v>1.203098770019039</v>
       </c>
       <c r="D15">
-        <v>0.1739454195183612</v>
+        <v>0.05369577962785854</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.68793294431487</v>
+        <v>4.138822912223674</v>
       </c>
       <c r="G15">
-        <v>0.0008023181073026908</v>
+        <v>0.0007919705045548883</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2049475074699814</v>
+        <v>0.06340716011890102</v>
       </c>
       <c r="K15">
-        <v>0.8942358056342101</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2109699376718766</v>
+        <v>0.2263464041494672</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9959680470629095</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.620997796100283</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.536236240058315</v>
+        <v>6.128714756654006</v>
       </c>
       <c r="C16">
-        <v>0.4439251300244678</v>
+        <v>1.116928147870567</v>
       </c>
       <c r="D16">
-        <v>0.1616179801884243</v>
+        <v>0.0493820819618449</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.08335386877872</v>
+        <v>3.945980039874627</v>
       </c>
       <c r="G16">
-        <v>0.0008104517560126662</v>
+        <v>0.0007991101734826757</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1970452995714567</v>
+        <v>0.06346891278178823</v>
       </c>
       <c r="K16">
-        <v>0.8307109625986868</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1991255925425861</v>
+        <v>0.2155554886351041</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9332359993039887</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.637372182789207</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.38215222687603</v>
+        <v>5.869553473146595</v>
       </c>
       <c r="C17">
-        <v>0.4218402574906008</v>
+        <v>1.064895761025753</v>
       </c>
       <c r="D17">
-        <v>0.1542002929317334</v>
+        <v>0.04681280086476391</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.719641832344024</v>
+        <v>3.830979004919556</v>
       </c>
       <c r="G17">
-        <v>0.0008154446940767757</v>
+        <v>0.0008035066396539816</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1922987852904967</v>
+        <v>0.06351102954080634</v>
       </c>
       <c r="K17">
-        <v>0.7926525797454786</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1920865468194535</v>
+        <v>0.2090596582734037</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8954006662662977</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.648365995646117</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.294789384417754</v>
+        <v>5.721973845134016</v>
       </c>
       <c r="C18">
-        <v>0.4093081980479383</v>
+        <v>1.035246805891916</v>
       </c>
       <c r="D18">
-        <v>0.1499820010268138</v>
+        <v>0.04536078414631817</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.51285415843958</v>
+        <v>3.765963475624915</v>
       </c>
       <c r="G18">
-        <v>0.0008183195905797057</v>
+        <v>0.000806042705667115</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1896027721172402</v>
+        <v>0.06353671471941613</v>
       </c>
       <c r="K18">
-        <v>0.771069380712504</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1881153433402147</v>
+        <v>0.2053660907206378</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8738592353458046</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.65501974647043</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.26541663241278</v>
+        <v>5.672249415850388</v>
       </c>
       <c r="C19">
-        <v>0.405092773790642</v>
+        <v>1.025253663224305</v>
       </c>
       <c r="D19">
-        <v>0.1485615815036994</v>
+        <v>0.04487335391344516</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.443232933387804</v>
+        <v>3.74413691125244</v>
       </c>
       <c r="G19">
-        <v>0.0008192936827329245</v>
+        <v>0.0008069027482246942</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.188695516335919</v>
+        <v>0.06354565376352728</v>
       </c>
       <c r="K19">
-        <v>0.7638118903309703</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.186783534179483</v>
+        <v>0.2041225757532317</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8666019222455148</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.657327699908549</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.398421689306531</v>
+        <v>5.896985435838474</v>
       </c>
       <c r="C20">
-        <v>0.4241731939924307</v>
+        <v>1.070405279020918</v>
       </c>
       <c r="D20">
-        <v>0.1549848246078227</v>
+        <v>0.04708358363335918</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.758105270626316</v>
+        <v>3.843102299640321</v>
       </c>
       <c r="G20">
-        <v>0.0008149129090144382</v>
+        <v>0.0008030378966771096</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1928004672545853</v>
+        <v>0.06350639292633975</v>
       </c>
       <c r="K20">
-        <v>0.7966715815849739</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.192827718651202</v>
+        <v>0.2097466716048046</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.8994050964278486</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.647161095308093</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.861174214585219</v>
+        <v>6.670669569373047</v>
       </c>
       <c r="C21">
-        <v>0.4904447978254325</v>
+        <v>1.225625987998058</v>
       </c>
       <c r="D21">
-        <v>0.1771772772277416</v>
+        <v>0.05483551426650024</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.84644050007557</v>
+        <v>4.189703857412582</v>
       </c>
       <c r="G21">
-        <v>0.0008002174895574975</v>
+        <v>0.000790131195368436</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2070217355758075</v>
+        <v>0.06339260925317536</v>
       </c>
       <c r="K21">
-        <v>0.9109432238526267</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.214103327754728</v>
+        <v>0.229173273992501</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.01238027651565</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.617079278577549</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.17738058695727</v>
+        <v>7.192314969874815</v>
       </c>
       <c r="C22">
-        <v>0.5356790964973186</v>
+        <v>1.330148059273256</v>
       </c>
       <c r="D22">
-        <v>0.1922242032252512</v>
+        <v>0.06018859268358057</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.58433287409088</v>
+        <v>4.428158107587649</v>
       </c>
       <c r="G22">
-        <v>0.0007905975661883443</v>
+        <v>0.0007817328926417372</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.21669045193768</v>
+        <v>0.06333342276559861</v>
       </c>
       <c r="K22">
-        <v>0.9889981118357412</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2288332785936404</v>
+        <v>0.2423149510970575</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.088581184003026</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.600769944985174</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.007219297809456</v>
+        <v>6.912291668212106</v>
       </c>
       <c r="C23">
-        <v>0.5113390962899587</v>
+        <v>1.274049661838319</v>
       </c>
       <c r="D23">
-        <v>0.1841375958436373</v>
+        <v>0.05730225863472782</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.18779642262587</v>
+        <v>4.299700268366706</v>
       </c>
       <c r="G23">
-        <v>0.0007957356384787842</v>
+        <v>0.0007862133369440659</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2114920250519035</v>
+        <v>0.06336350472310404</v>
       </c>
       <c r="K23">
-        <v>0.9469959193628199</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2208888643616973</v>
+        <v>0.2352568039808745</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.047673687151125</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.609146292473667</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.391062485046859</v>
+        <v>5.884579065415323</v>
       </c>
       <c r="C24">
-        <v>0.4231179641694496</v>
+        <v>1.067913606261527</v>
       </c>
       <c r="D24">
-        <v>0.1546299950079799</v>
+        <v>0.04696108516944975</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.740708792363336</v>
+        <v>3.837617951166692</v>
       </c>
       <c r="G24">
-        <v>0.0008151533149132085</v>
+        <v>0.000803249788571598</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1925735553459376</v>
+        <v>0.06350848457790725</v>
       </c>
       <c r="K24">
-        <v>0.7948536721659138</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1924924006770539</v>
+        <v>0.2094359459473978</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8975940417865118</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.647704797015336</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.773717456590759</v>
+        <v>4.831565591545825</v>
       </c>
       <c r="C25">
-        <v>0.3343263047572691</v>
+        <v>0.8559738162046813</v>
       </c>
       <c r="D25">
-        <v>0.1245981659457414</v>
+        <v>0.03676883175772616</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.269903829807333</v>
+        <v>3.381616024580978</v>
       </c>
       <c r="G25">
-        <v>0.0008362335452161664</v>
+        <v>0.0008219187066388684</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1734410865958509</v>
+        <v>0.06371994281550819</v>
       </c>
       <c r="K25">
-        <v>0.6422347257138128</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.164771837944734</v>
+        <v>0.1831875119518642</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7439696391186317</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.701760790823002</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.091597877812092</v>
+        <v>3.768577808579209</v>
       </c>
       <c r="C2">
-        <v>0.7062560834046394</v>
+        <v>0.2696893970263829</v>
       </c>
       <c r="D2">
-        <v>0.02984540745590891</v>
+        <v>0.01177338621349833</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.074101711948515</v>
+        <v>4.561091461841045</v>
       </c>
       <c r="G2">
-        <v>0.0008360435608421598</v>
+        <v>0.002645219141746815</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06391423049904255</v>
+        <v>0.1334494828089401</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.164947204834462</v>
+        <v>0.3298031688368681</v>
       </c>
       <c r="M2">
-        <v>0.6361719899852503</v>
+        <v>0.702488960043226</v>
       </c>
       <c r="N2">
-        <v>1.750509875513785</v>
+        <v>3.148878555820716</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.607017861247073</v>
+        <v>3.671253686709235</v>
       </c>
       <c r="C3">
-        <v>0.6076588084480363</v>
+        <v>0.2449592784458332</v>
       </c>
       <c r="D3">
-        <v>0.02541570900565659</v>
+        <v>0.01038945082990494</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.879884280436073</v>
+        <v>4.53715470808099</v>
       </c>
       <c r="G3">
-        <v>0.000845906012116236</v>
+        <v>0.002651376000822173</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06406660643630246</v>
+        <v>0.1334652963854541</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1531408698692971</v>
+        <v>0.3288900371184269</v>
       </c>
       <c r="M3">
-        <v>0.5656878531753406</v>
+        <v>0.6895179128371325</v>
       </c>
       <c r="N3">
-        <v>1.788397744342632</v>
+        <v>3.164640919489656</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.316352307106229</v>
+        <v>3.613753226221718</v>
       </c>
       <c r="C4">
-        <v>0.5482272574757303</v>
+        <v>0.2299275255790008</v>
       </c>
       <c r="D4">
-        <v>0.02279721854289818</v>
+        <v>0.009537214601323285</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.766655142824249</v>
+        <v>4.524608119840096</v>
       </c>
       <c r="G4">
-        <v>0.0008521199654645209</v>
+        <v>0.0026553551481452</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06416947759436553</v>
+        <v>0.1334769510082596</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.146130659329323</v>
+        <v>0.3284653301455549</v>
       </c>
       <c r="M4">
-        <v>0.5234663922160152</v>
+        <v>0.6819487420823123</v>
       </c>
       <c r="N4">
-        <v>1.813845264172016</v>
+        <v>3.175130538977314</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.199435025422133</v>
+        <v>3.590887279277922</v>
       </c>
       <c r="C5">
-        <v>0.5242460838284728</v>
+        <v>0.2238397629052997</v>
       </c>
       <c r="D5">
-        <v>0.02175193090612737</v>
+        <v>0.009189208388924897</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.721896661839608</v>
+        <v>4.520034640097151</v>
       </c>
       <c r="G5">
-        <v>0.0008546940854056479</v>
+        <v>0.002657026851696079</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06421362347258963</v>
+        <v>0.1334821882214179</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1433293560369364</v>
+        <v>0.3283264787878224</v>
       </c>
       <c r="M5">
-        <v>0.5064980609272425</v>
+        <v>0.6789634268715332</v>
       </c>
       <c r="N5">
-        <v>1.824736516772361</v>
+        <v>3.179608710100695</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.180108085882011</v>
+        <v>3.587124543795596</v>
       </c>
       <c r="C6">
-        <v>0.520277258437261</v>
+        <v>0.2228311605999806</v>
       </c>
       <c r="D6">
-        <v>0.02157957456611825</v>
+        <v>0.009131376659702539</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.71454449279517</v>
+        <v>4.519307751303714</v>
       </c>
       <c r="G6">
-        <v>0.0008551241027506817</v>
+        <v>0.002657307471940135</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06422108512073255</v>
+        <v>0.1334830872871056</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1428674198804458</v>
+        <v>0.3283054904166605</v>
       </c>
       <c r="M6">
-        <v>0.5036940315833363</v>
+        <v>0.678473703204844</v>
       </c>
       <c r="N6">
-        <v>1.826575706520231</v>
+        <v>3.180364587852324</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.314769565951394</v>
+        <v>3.613442558598308</v>
       </c>
       <c r="C7">
-        <v>0.5479029279782992</v>
+        <v>0.2298452715986627</v>
       </c>
       <c r="D7">
-        <v>0.02278303794068393</v>
+        <v>0.009532524266894882</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.766046077783727</v>
+        <v>4.524544258405214</v>
       </c>
       <c r="G7">
-        <v>0.0008521545088719355</v>
+        <v>0.002655377489954605</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06417006409516457</v>
+        <v>0.1334770196654347</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1460926614753006</v>
+        <v>0.3284633189476125</v>
       </c>
       <c r="M7">
-        <v>0.5232366263277015</v>
+        <v>0.6819080797107588</v>
       </c>
       <c r="N7">
-        <v>1.813990072399392</v>
+        <v>3.175190109602511</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.922965519838328</v>
+        <v>3.734551024899872</v>
       </c>
       <c r="C8">
-        <v>0.6720040570837682</v>
+        <v>0.2611304104252667</v>
       </c>
       <c r="D8">
-        <v>0.02829465105075002</v>
+        <v>0.01129667085753283</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.005803373066556</v>
+        <v>4.552390799994399</v>
       </c>
       <c r="G8">
-        <v>0.000839412560842856</v>
+        <v>0.00264730087003362</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0639647621627617</v>
+        <v>0.1334545308801696</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1608238489432523</v>
+        <v>0.3294601203402152</v>
       </c>
       <c r="M8">
-        <v>0.611632010050613</v>
+        <v>0.6979344293532748</v>
       </c>
       <c r="N8">
-        <v>1.763102576275713</v>
+        <v>3.154144707395716</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.180027258931887</v>
+        <v>3.990042169599633</v>
       </c>
       <c r="C9">
-        <v>0.926223448367324</v>
+        <v>0.3237214297756452</v>
       </c>
       <c r="D9">
-        <v>0.04009702070010945</v>
+        <v>0.01474037752573309</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.53033276319124</v>
+        <v>4.624136557265729</v>
       </c>
       <c r="G9">
-        <v>0.0008155789650219692</v>
+        <v>0.00263303207267862</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06364220507642226</v>
+        <v>0.1334259235310187</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1918427324921339</v>
+        <v>0.3324927434640372</v>
       </c>
       <c r="M9">
-        <v>0.7947836934061812</v>
+        <v>0.7325075247457278</v>
       </c>
       <c r="N9">
-        <v>1.68205451795869</v>
+        <v>3.119335241197462</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.15849664949701</v>
+        <v>4.188875820627004</v>
       </c>
       <c r="C10">
-        <v>1.122905044373169</v>
+        <v>0.370509917794152</v>
       </c>
       <c r="D10">
-        <v>0.04967892569484889</v>
+        <v>0.01726660742614428</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.959261481325598</v>
+        <v>4.687411855185246</v>
       </c>
       <c r="G10">
-        <v>0.0007986094102828989</v>
+        <v>0.002623494280428629</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06346431157153809</v>
+        <v>0.1334144409488562</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2163026960978982</v>
+        <v>0.3353775311626492</v>
       </c>
       <c r="M10">
-        <v>0.9375844173838601</v>
+        <v>0.7598446350984247</v>
       </c>
       <c r="N10">
-        <v>1.636163771896719</v>
+        <v>3.097729699562933</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.619650349503218</v>
+        <v>4.281781327981037</v>
       </c>
       <c r="C11">
-        <v>1.215398606413657</v>
+        <v>0.3919799786056046</v>
       </c>
       <c r="D11">
-        <v>0.05431745721015346</v>
+        <v>0.01841628057594846</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.1665805864493</v>
+        <v>4.718517454515364</v>
       </c>
       <c r="G11">
-        <v>0.0007909649013250784</v>
+        <v>0.002619358186925448</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06339913499516925</v>
+        <v>0.1334113085912367</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2278896001397186</v>
+        <v>0.3368324955508655</v>
       </c>
       <c r="M11">
-        <v>1.004928541594246</v>
+        <v>0.7727058530115585</v>
       </c>
       <c r="N11">
-        <v>1.618840109807095</v>
+        <v>3.088769350219678</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.796984578066315</v>
+        <v>4.317317695224233</v>
       </c>
       <c r="C12">
-        <v>1.250943268118249</v>
+        <v>0.4001376006352189</v>
       </c>
       <c r="D12">
-        <v>0.05612233850145287</v>
+        <v>0.01885180054890867</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.24710825134062</v>
+        <v>4.73063210979501</v>
       </c>
       <c r="G12">
-        <v>0.0007880768330076364</v>
+        <v>0.002617820918564568</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06337702541958823</v>
+        <v>0.1334104248980799</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2323527848926261</v>
+        <v>0.3374039565604079</v>
       </c>
       <c r="M12">
-        <v>1.030830402132445</v>
+        <v>0.777637532339142</v>
       </c>
       <c r="N12">
-        <v>1.612849112356912</v>
+        <v>3.08550171707671</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.758665182849995</v>
+        <v>4.309648477975315</v>
       </c>
       <c r="C13">
-        <v>1.243263501381932</v>
+        <v>0.3983794824859501</v>
       </c>
       <c r="D13">
-        <v>0.05573132944586945</v>
+        <v>0.01875799472696116</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.229670651285829</v>
+        <v>4.728008044729506</v>
       </c>
       <c r="G13">
-        <v>0.0007886986011345067</v>
+        <v>0.002618150710437609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06338166719698712</v>
+        <v>0.1334106017362355</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2313880383933622</v>
+        <v>0.3372799708185283</v>
       </c>
       <c r="M13">
-        <v>1.025233174148511</v>
+        <v>0.7765726715916372</v>
       </c>
       <c r="N13">
-        <v>1.614113046966651</v>
+        <v>3.086199870589894</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.634183033183945</v>
+        <v>4.284697798363823</v>
       </c>
       <c r="C14">
-        <v>1.218311946714721</v>
+        <v>0.3926505585649238</v>
       </c>
       <c r="D14">
-        <v>0.05446492498249</v>
+        <v>0.01845210723686819</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.173163486765816</v>
+        <v>4.719507397137448</v>
       </c>
       <c r="G14">
-        <v>0.0007907271884398659</v>
+        <v>0.002619231134969896</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06339726251498146</v>
+        <v>0.1334112298169536</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2282552181653728</v>
+        <v>0.3368790992791304</v>
       </c>
       <c r="M14">
-        <v>1.007051125969014</v>
+        <v>0.7731103529831742</v>
       </c>
       <c r="N14">
-        <v>1.618335455971035</v>
+        <v>3.088498002136816</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.55829925467998</v>
+        <v>4.269461088293951</v>
       </c>
       <c r="C15">
-        <v>1.203098770019039</v>
+        <v>0.3891450123808795</v>
       </c>
       <c r="D15">
-        <v>0.05369577962785854</v>
+        <v>0.01826476647187292</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.138822912223674</v>
+        <v>4.714344270317099</v>
       </c>
       <c r="G15">
-        <v>0.0007919705045548883</v>
+        <v>0.002619896695248939</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06340716011890102</v>
+        <v>0.1334116539775136</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2263464041494672</v>
+        <v>0.3366362228117197</v>
       </c>
       <c r="M15">
-        <v>0.9959680470629095</v>
+        <v>0.7709975881910864</v>
       </c>
       <c r="N15">
-        <v>1.620997796100283</v>
+        <v>3.089922030868422</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.128714756654006</v>
+        <v>4.182853801891213</v>
       </c>
       <c r="C16">
-        <v>1.116928147870567</v>
+        <v>0.3691105931476955</v>
       </c>
       <c r="D16">
-        <v>0.0493820819618449</v>
+        <v>0.01719149129905162</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.945980039874627</v>
+        <v>4.685425898362524</v>
       </c>
       <c r="G16">
-        <v>0.0007991101734826757</v>
+        <v>0.002623768648167992</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06346891278178823</v>
+        <v>0.1334146878837785</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2155554886351041</v>
+        <v>0.3352853150246773</v>
       </c>
       <c r="M16">
-        <v>0.9332359993039887</v>
+        <v>0.7590127052061177</v>
       </c>
       <c r="N16">
-        <v>1.637372182789207</v>
+        <v>3.098332801193706</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.869553473146595</v>
+        <v>4.130353267325916</v>
       </c>
       <c r="C17">
-        <v>1.064895761025753</v>
+        <v>0.3568681695470559</v>
       </c>
       <c r="D17">
-        <v>0.04681280086476391</v>
+        <v>0.01653326148274914</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.830979004919556</v>
+        <v>4.668281258598086</v>
       </c>
       <c r="G17">
-        <v>0.0008035066396539816</v>
+        <v>0.002626195762328438</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06351102954080634</v>
+        <v>0.1334170859067099</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2090596582734037</v>
+        <v>0.3344931029606784</v>
       </c>
       <c r="M17">
-        <v>0.8954006662662977</v>
+        <v>0.7517694974639539</v>
       </c>
       <c r="N17">
-        <v>1.648365995646117</v>
+        <v>3.10371532196848</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.721973845134016</v>
+        <v>4.100387307278709</v>
       </c>
       <c r="C18">
-        <v>1.035246805891916</v>
+        <v>0.3498440937449345</v>
       </c>
       <c r="D18">
-        <v>0.04536078414631817</v>
+        <v>0.01615470440039957</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.765963475624915</v>
+        <v>4.658638499700089</v>
       </c>
       <c r="G18">
-        <v>0.000806042705667115</v>
+        <v>0.002627610862958801</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06353671471941613</v>
+        <v>0.1334186619029456</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2053660907206378</v>
+        <v>0.3340508722532007</v>
       </c>
       <c r="M18">
-        <v>0.8738592353458046</v>
+        <v>0.7476434245131287</v>
       </c>
       <c r="N18">
-        <v>1.65501974647043</v>
+        <v>3.106892879301142</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.672249415850388</v>
+        <v>4.090280954620937</v>
       </c>
       <c r="C19">
-        <v>1.025253663224305</v>
+        <v>0.3474688380160273</v>
       </c>
       <c r="D19">
-        <v>0.04487335391344516</v>
+        <v>0.01602653535345411</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.74413691125244</v>
+        <v>4.655411079720807</v>
       </c>
       <c r="G19">
-        <v>0.0008069027482246942</v>
+        <v>0.002628093275271534</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06354565376352728</v>
+        <v>0.1334192292420591</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2041225757532317</v>
+        <v>0.3339034474712648</v>
       </c>
       <c r="M19">
-        <v>0.8666019222455148</v>
+        <v>0.74625327491718</v>
       </c>
       <c r="N19">
-        <v>1.657327699908549</v>
+        <v>3.107982754355106</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.896985435838474</v>
+        <v>4.135918120988549</v>
       </c>
       <c r="C20">
-        <v>1.070405279020918</v>
+        <v>0.3581695864211838</v>
       </c>
       <c r="D20">
-        <v>0.04708358363335918</v>
+        <v>0.01660332641753115</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.843102299640321</v>
+        <v>4.670083719665456</v>
       </c>
       <c r="G20">
-        <v>0.0008030378966771096</v>
+        <v>0.002625935417664094</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06350639292633975</v>
+        <v>0.1334168102609254</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2097466716048046</v>
+        <v>0.3345760455932876</v>
       </c>
       <c r="M20">
-        <v>0.8994050964278486</v>
+        <v>0.7525364047877403</v>
       </c>
       <c r="N20">
-        <v>1.647161095308093</v>
+        <v>3.103133886051793</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.670669569373047</v>
+        <v>4.292016764849905</v>
       </c>
       <c r="C21">
-        <v>1.225625987998058</v>
+        <v>0.3943325340475781</v>
       </c>
       <c r="D21">
-        <v>0.05483551426650024</v>
+        <v>0.01854194860375458</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.189703857412582</v>
+        <v>4.721995119419034</v>
       </c>
       <c r="G21">
-        <v>0.000790131195368436</v>
+        <v>0.002618913002795193</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06339260925317536</v>
+        <v>0.1334110371111628</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.229173273992501</v>
+        <v>0.3369962887934719</v>
       </c>
       <c r="M21">
-        <v>1.01238027651565</v>
+        <v>0.7741256511433576</v>
       </c>
       <c r="N21">
-        <v>1.617079278577549</v>
+        <v>3.087819575322726</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.192314969874815</v>
+        <v>4.396106846416444</v>
       </c>
       <c r="C22">
-        <v>1.330148059273256</v>
+        <v>0.4181269965581009</v>
       </c>
       <c r="D22">
-        <v>0.06018859268358057</v>
+        <v>0.01980994927880175</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.428158107587649</v>
+        <v>4.75787946498221</v>
       </c>
       <c r="G22">
-        <v>0.0007817328926417372</v>
+        <v>0.002614492293399795</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06333342276559861</v>
+        <v>0.1334090278760742</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2423149510970575</v>
+        <v>0.3386975267845855</v>
       </c>
       <c r="M22">
-        <v>1.088581184003026</v>
+        <v>0.7885935642188144</v>
       </c>
       <c r="N22">
-        <v>1.600769944985174</v>
+        <v>3.07854234180931</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.912291668212106</v>
+        <v>4.340361864455758</v>
       </c>
       <c r="C23">
-        <v>1.274049661838319</v>
+        <v>0.4054125913185658</v>
       </c>
       <c r="D23">
-        <v>0.05730225863472782</v>
+        <v>0.01913307040790357</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.299700268366706</v>
+        <v>4.738547610466753</v>
       </c>
       <c r="G23">
-        <v>0.0007862133369440659</v>
+        <v>0.00261683631496505</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06336350472310404</v>
+        <v>0.133409938250554</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2352568039808745</v>
+        <v>0.3377786176456254</v>
       </c>
       <c r="M23">
-        <v>1.047673687151125</v>
+        <v>0.7808389198204537</v>
       </c>
       <c r="N23">
-        <v>1.609146292473667</v>
+        <v>3.083426630367725</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.884579065415323</v>
+        <v>4.133401573969934</v>
       </c>
       <c r="C24">
-        <v>1.067913606261527</v>
+        <v>0.3575811714967472</v>
       </c>
       <c r="D24">
-        <v>0.04696108516944975</v>
+        <v>0.01657165047883069</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.837617951166692</v>
+        <v>4.669268160832814</v>
       </c>
       <c r="G24">
-        <v>0.000803249788571598</v>
+        <v>0.002626053058040201</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06350848457790725</v>
+        <v>0.1334169342655445</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2094359459473978</v>
+        <v>0.3345385060429322</v>
       </c>
       <c r="M24">
-        <v>0.8975940417865118</v>
+        <v>0.7521895671955576</v>
       </c>
       <c r="N24">
-        <v>1.647704797015336</v>
+        <v>3.103396494518321</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.831565591545825</v>
+        <v>3.918982718575478</v>
       </c>
       <c r="C25">
-        <v>0.8559738162046813</v>
+        <v>0.3066512961679848</v>
       </c>
       <c r="D25">
-        <v>0.03676883175772616</v>
+        <v>0.01380986126574157</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.381616024580978</v>
+        <v>4.602880806601831</v>
       </c>
       <c r="G25">
-        <v>0.0008219187066388684</v>
+        <v>0.002636725310052454</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06371994281550819</v>
+        <v>0.1334319948340266</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1831875119518642</v>
+        <v>0.3315569899044348</v>
       </c>
       <c r="M25">
-        <v>0.7439696391186317</v>
+        <v>0.7228159417075517</v>
       </c>
       <c r="N25">
-        <v>1.701760790823002</v>
+        <v>3.128057368837659</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.768577808579209</v>
+        <v>3.59866951215605</v>
       </c>
       <c r="C2">
-        <v>0.2696893970263829</v>
+        <v>0.9759351589123071</v>
       </c>
       <c r="D2">
-        <v>0.01177338621349833</v>
+        <v>0.01956295938241581</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.561091461841045</v>
+        <v>1.855334649966082</v>
       </c>
       <c r="G2">
-        <v>0.002645219141746815</v>
+        <v>0.0007741164264036386</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1334494828089401</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3298031688368681</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.702488960043226</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.148878555820716</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.671253686709235</v>
+        <v>3.101786535662256</v>
       </c>
       <c r="C3">
-        <v>0.2449592784458332</v>
+        <v>0.8421454571704032</v>
       </c>
       <c r="D3">
-        <v>0.01038945082990494</v>
+        <v>0.02116663526666684</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.53715470808099</v>
+        <v>1.64762347809372</v>
       </c>
       <c r="G3">
-        <v>0.002651376000822173</v>
+        <v>0.0007836172170709079</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1334652963854541</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3288900371184269</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6895179128371325</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.164640919489656</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.613753226221718</v>
+        <v>2.80137885555024</v>
       </c>
       <c r="C4">
-        <v>0.2299275255790008</v>
+        <v>0.7611232055460562</v>
       </c>
       <c r="D4">
-        <v>0.009537214601323285</v>
+        <v>0.02228878092934394</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.524608119840096</v>
+        <v>1.526306085392477</v>
       </c>
       <c r="G4">
-        <v>0.0026553551481452</v>
+        <v>0.0007895797928261158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1334769510082596</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3284653301455549</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6819487420823123</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.175130538977314</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.590887279277922</v>
+        <v>2.679948868554732</v>
       </c>
       <c r="C5">
-        <v>0.2238397629052997</v>
+        <v>0.7283378427596858</v>
       </c>
       <c r="D5">
-        <v>0.009189208388924897</v>
+        <v>0.0227774031528245</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.520034640097151</v>
+        <v>1.478255163737387</v>
       </c>
       <c r="G5">
-        <v>0.002657026851696079</v>
+        <v>0.0007920444154316445</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1334821882214179</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3283264787878224</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6789634268715332</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.179608710100695</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.587124543795596</v>
+        <v>2.659840063712579</v>
       </c>
       <c r="C6">
-        <v>0.2228311605999806</v>
+        <v>0.722906467499854</v>
       </c>
       <c r="D6">
-        <v>0.009131376659702539</v>
+        <v>0.02286034331169695</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.519307751303714</v>
+        <v>1.470355256158143</v>
       </c>
       <c r="G6">
-        <v>0.002657307471940135</v>
+        <v>0.0007924558327385105</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1334830872871056</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3283054904166605</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.678473703204844</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.180364587852324</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.613442558598308</v>
+        <v>2.79973744101909</v>
       </c>
       <c r="C7">
-        <v>0.2298452715986627</v>
+        <v>0.7606801755933361</v>
       </c>
       <c r="D7">
-        <v>0.009532524266894882</v>
+        <v>0.02229524778994119</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.524544258405214</v>
+        <v>1.525652659865401</v>
       </c>
       <c r="G7">
-        <v>0.002655377489954605</v>
+        <v>0.0007896128875630671</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1334770196654347</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3284633189476125</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6819080797107588</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3.175190109602511</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.734551024899872</v>
+        <v>3.426253269843187</v>
       </c>
       <c r="C8">
-        <v>0.2611304104252667</v>
+        <v>0.9295384684713213</v>
       </c>
       <c r="D8">
-        <v>0.01129667085753283</v>
+        <v>0.02008531356351106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.552390799994399</v>
+        <v>1.782313467781506</v>
       </c>
       <c r="G8">
-        <v>0.00264730087003362</v>
+        <v>0.0007773670155942793</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1334545308801696</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3294601203402152</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6979344293532748</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.154144707395716</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.990042169599633</v>
+        <v>4.701641294927583</v>
       </c>
       <c r="C9">
-        <v>0.3237214297756452</v>
+        <v>1.272226010533927</v>
       </c>
       <c r="D9">
-        <v>0.01474037752573309</v>
+        <v>0.01700926801195024</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.624136557265729</v>
+        <v>2.343942140086767</v>
       </c>
       <c r="G9">
-        <v>0.00263303207267862</v>
+        <v>0.0007542562295170582</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1334259235310187</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3324927434640372</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7325075247457278</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3.119335241197462</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.188875820627004</v>
+        <v>5.682746500475162</v>
       </c>
       <c r="C10">
-        <v>0.370509917794152</v>
+        <v>1.535301197584488</v>
       </c>
       <c r="D10">
-        <v>0.01726660742614428</v>
+        <v>0.01578807186044529</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.687411855185246</v>
+        <v>2.806493293589227</v>
       </c>
       <c r="G10">
-        <v>0.002623494280428629</v>
+        <v>0.0007376345729786336</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1334144409488562</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3353775311626492</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7598446350984247</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3.097729699562933</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.281781327981037</v>
+        <v>6.142826035608778</v>
       </c>
       <c r="C11">
-        <v>0.3919799786056046</v>
+        <v>1.658587131597073</v>
       </c>
       <c r="D11">
-        <v>0.01841628057594846</v>
+        <v>0.01553316202616273</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.718517454515364</v>
+        <v>3.031610371166863</v>
       </c>
       <c r="G11">
-        <v>0.002619358186925448</v>
+        <v>0.0007300992128100956</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1334113085912367</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3368324955508655</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7727058530115585</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3.088769350219678</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.317317695224233</v>
+        <v>6.319443821885045</v>
       </c>
       <c r="C12">
-        <v>0.4001376006352189</v>
+        <v>1.705907501191689</v>
       </c>
       <c r="D12">
-        <v>0.01885180054890867</v>
+        <v>0.01548759612222383</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.73063210979501</v>
+        <v>3.119355932799721</v>
       </c>
       <c r="G12">
-        <v>0.002617820918564568</v>
+        <v>0.0007272443761896254</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1334104248980799</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3374039565604079</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.777637532339142</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3.08550171707671</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.309648477975315</v>
+        <v>6.281292102493751</v>
       </c>
       <c r="C13">
-        <v>0.3983794824859501</v>
+        <v>1.695685934319783</v>
       </c>
       <c r="D13">
-        <v>0.01875799472696116</v>
+        <v>0.01549500406913751</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.728008044729506</v>
+        <v>3.100340404786039</v>
       </c>
       <c r="G13">
-        <v>0.002618150710437609</v>
+        <v>0.0007278593669874292</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1334106017362355</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3372799708185283</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7765726715916372</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3.086199870589894</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.284697798363823</v>
+        <v>6.157305844957307</v>
       </c>
       <c r="C14">
-        <v>0.3926505585649238</v>
+        <v>1.662466755520882</v>
       </c>
       <c r="D14">
-        <v>0.01845210723686819</v>
+        <v>0.01552834241708112</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.719507397137448</v>
+        <v>3.038776740757726</v>
       </c>
       <c r="G14">
-        <v>0.002619231134969896</v>
+        <v>0.0007298644031033386</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1334112298169536</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3368790992791304</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7731103529831742</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3.088498002136816</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.269461088293951</v>
+        <v>6.081686185184537</v>
       </c>
       <c r="C15">
-        <v>0.3891450123808795</v>
+        <v>1.64220546191865</v>
       </c>
       <c r="D15">
-        <v>0.01826476647187292</v>
+        <v>0.0155556542206412</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.714344270317099</v>
+        <v>3.001405127079437</v>
       </c>
       <c r="G15">
-        <v>0.002619896695248939</v>
+        <v>0.0007310922034185351</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1334116539775136</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3366362228117197</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7709975881910864</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>3.089922030868422</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.182853801891213</v>
+        <v>5.652990293917867</v>
       </c>
       <c r="C16">
-        <v>0.3691105931476955</v>
+        <v>1.527326266412842</v>
       </c>
       <c r="D16">
-        <v>0.01719149129905162</v>
+        <v>0.01581140929195257</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.685425898362524</v>
+        <v>2.792108637555089</v>
       </c>
       <c r="G16">
-        <v>0.002623768648167992</v>
+        <v>0.0007381271317403242</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1334146878837785</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3352853150246773</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7590127052061177</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>3.098332801193706</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.130353267325916</v>
+        <v>5.393800947983209</v>
       </c>
       <c r="C17">
-        <v>0.3568681695470559</v>
+        <v>1.457852753002157</v>
       </c>
       <c r="D17">
-        <v>0.01653326148274914</v>
+        <v>0.01605037481469651</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.668281258598086</v>
+        <v>2.667731642701511</v>
       </c>
       <c r="G17">
-        <v>0.002626195762328438</v>
+        <v>0.0007424461020125182</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1334170859067099</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3344931029606784</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7517694974639539</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>3.10371532196848</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.100387307278709</v>
+        <v>5.245989656846007</v>
       </c>
       <c r="C18">
-        <v>0.3498440937449345</v>
+        <v>1.41822543637744</v>
       </c>
       <c r="D18">
-        <v>0.01615470440039957</v>
+        <v>0.01621557927873596</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.658638499700089</v>
+        <v>2.597550551165597</v>
       </c>
       <c r="G18">
-        <v>0.002627610862958801</v>
+        <v>0.0007449330471719184</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1334186619029456</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3340508722532007</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7476434245131287</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>3.106892879301142</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.090280954620937</v>
+        <v>5.196149417630181</v>
       </c>
       <c r="C19">
-        <v>0.3474688380160273</v>
+        <v>1.404862126519902</v>
       </c>
       <c r="D19">
-        <v>0.01602653535345411</v>
+        <v>0.01627606885915256</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.655411079720807</v>
+        <v>2.574010827916027</v>
       </c>
       <c r="G19">
-        <v>0.002628093275271534</v>
+        <v>0.0007457757046848384</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1334192292420591</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3339034474712648</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.74625327491718</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3.107982754355106</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.135918120988549</v>
+        <v>5.421258112825853</v>
       </c>
       <c r="C20">
-        <v>0.3581695864211838</v>
+        <v>1.465213191450857</v>
       </c>
       <c r="D20">
-        <v>0.01660332641753115</v>
+        <v>0.01602201213854926</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.670083719665456</v>
+        <v>2.680828726160456</v>
       </c>
       <c r="G20">
-        <v>0.002625935417664094</v>
+        <v>0.0007419860860846746</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1334168102609254</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3345760455932876</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7525364047877403</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3.103133886051793</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.292016764849905</v>
+        <v>6.193654937208919</v>
       </c>
       <c r="C21">
-        <v>0.3943325340475781</v>
+        <v>1.672205790631722</v>
       </c>
       <c r="D21">
-        <v>0.01854194860375458</v>
+        <v>0.01551709812646607</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.721995119419034</v>
+        <v>3.056788281387696</v>
       </c>
       <c r="G21">
-        <v>0.002618913002795193</v>
+        <v>0.000729275556903563</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1334110371111628</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3369962887934719</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7741256511433576</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>3.087819575322726</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.396106846416444</v>
+        <v>6.712670881841802</v>
       </c>
       <c r="C22">
-        <v>0.4181269965581009</v>
+        <v>1.811255523076341</v>
       </c>
       <c r="D22">
-        <v>0.01980994927880175</v>
+        <v>0.01548886780178904</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.75787946498221</v>
+        <v>3.317291472339832</v>
       </c>
       <c r="G22">
-        <v>0.002614492293399795</v>
+        <v>0.0007209575615195041</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1334090278760742</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3386975267845855</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7885935642188144</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>3.07854234180931</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.340361864455758</v>
+        <v>6.434205757629798</v>
       </c>
       <c r="C23">
-        <v>0.4054125913185658</v>
+        <v>1.736653739370979</v>
       </c>
       <c r="D23">
-        <v>0.01913307040790357</v>
+        <v>0.01547337018647355</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.738547610466753</v>
+        <v>3.176757806503502</v>
       </c>
       <c r="G23">
-        <v>0.00261683631496505</v>
+        <v>0.0007253999430083535</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.133409938250554</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3377786176456254</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7808389198204537</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>3.083426630367725</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.133401573969934</v>
+        <v>5.408841020942418</v>
       </c>
       <c r="C24">
-        <v>0.3575811714967472</v>
+        <v>1.4618845678296</v>
       </c>
       <c r="D24">
-        <v>0.01657165047883069</v>
+        <v>0.01603474881639144</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.669268160832814</v>
+        <v>2.674903436160207</v>
       </c>
       <c r="G24">
-        <v>0.002626053058040201</v>
+        <v>0.0007421940467370992</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1334169342655445</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3345385060429322</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7521895671955576</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>3.103396494518321</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.918982718575478</v>
+        <v>4.350130130839659</v>
       </c>
       <c r="C25">
-        <v>0.3066512961679848</v>
+        <v>1.177879969763012</v>
       </c>
       <c r="D25">
-        <v>0.01380986126574157</v>
+        <v>0.01768125283359723</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.602880806601831</v>
+        <v>2.184398175477654</v>
       </c>
       <c r="G25">
-        <v>0.002636725310052454</v>
+        <v>0.000760429960732778</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1334319948340266</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3315569899044348</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7228159417075517</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>3.128057368837659</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.59866951215605</v>
+        <v>3.449428331641002</v>
       </c>
       <c r="C2">
-        <v>0.9759351589123071</v>
+        <v>0.9982227907523225</v>
       </c>
       <c r="D2">
-        <v>0.01956295938241581</v>
+        <v>0.03172138027976246</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.855334649966082</v>
+        <v>1.814263910620483</v>
       </c>
       <c r="G2">
-        <v>0.0007741164264036386</v>
+        <v>0.0007938166815006416</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002040037396629835</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.101786535662256</v>
+        <v>2.993295657310057</v>
       </c>
       <c r="C3">
-        <v>0.8421454571704032</v>
+        <v>0.8637839152792992</v>
       </c>
       <c r="D3">
-        <v>0.02116663526666684</v>
+        <v>0.03239356478296429</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.64762347809372</v>
+        <v>1.624637643376602</v>
       </c>
       <c r="G3">
-        <v>0.0007836172170709079</v>
+        <v>0.0008009136028366262</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005415994938058333</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.80137885555024</v>
+        <v>2.714879073436464</v>
       </c>
       <c r="C4">
-        <v>0.7611232055460562</v>
+        <v>0.7827315438028677</v>
       </c>
       <c r="D4">
-        <v>0.02228878092934394</v>
+        <v>0.03276040081950882</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.526306085392477</v>
+        <v>1.509036365549221</v>
       </c>
       <c r="G4">
-        <v>0.0007895797928261158</v>
+        <v>0.0008053941136406356</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004733647622363613</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.679948868554732</v>
+        <v>2.601712334019965</v>
       </c>
       <c r="C5">
-        <v>0.7283378427596858</v>
+        <v>0.7515755768533836</v>
       </c>
       <c r="D5">
-        <v>0.0227774031528245</v>
+        <v>0.03271940708173204</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.478255163737387</v>
+        <v>1.455012734718579</v>
       </c>
       <c r="G5">
-        <v>0.0007920444154316445</v>
+        <v>0.0008072665837825106</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0007113638850162474</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.659840063712579</v>
+        <v>2.582883763513337</v>
       </c>
       <c r="C6">
-        <v>0.722906467499854</v>
+        <v>0.7483124265440608</v>
       </c>
       <c r="D6">
-        <v>0.02286034331169695</v>
+        <v>0.03249804333232653</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.470355256158143</v>
+        <v>1.437445664522158</v>
       </c>
       <c r="G6">
-        <v>0.0007924558327385105</v>
+        <v>0.0008075971685625319</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0008540287709379868</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.79973744101909</v>
+        <v>2.713187553185435</v>
       </c>
       <c r="C7">
-        <v>0.7606801755933361</v>
+        <v>0.7874845422498709</v>
       </c>
       <c r="D7">
-        <v>0.02229524778994119</v>
+        <v>0.03216823667292878</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.525652659865401</v>
+        <v>1.484705568971577</v>
       </c>
       <c r="G7">
-        <v>0.0007896128875630671</v>
+        <v>0.0008054670675243055</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007047959113215541</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.426253269843187</v>
+        <v>3.291485219529761</v>
       </c>
       <c r="C8">
-        <v>0.9295384684713213</v>
+        <v>0.9584315267965735</v>
       </c>
       <c r="D8">
-        <v>0.02008531356351106</v>
+        <v>0.03116883041336749</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.782313467781506</v>
+        <v>1.717098490305418</v>
       </c>
       <c r="G8">
-        <v>0.0007773670155942793</v>
+        <v>0.0007962998941470674</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001581273689130747</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.701641294927583</v>
+        <v>4.443011327753197</v>
       </c>
       <c r="C9">
-        <v>1.272226010533927</v>
+        <v>1.298344364862317</v>
       </c>
       <c r="D9">
-        <v>0.01700926801195024</v>
+        <v>0.02993710216353129</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.343942140086767</v>
+        <v>2.225773536441793</v>
       </c>
       <c r="G9">
-        <v>0.0007542562295170582</v>
+        <v>0.0007791603013742216</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01062721742675876</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.682746500475162</v>
+        <v>5.305526218380351</v>
       </c>
       <c r="C10">
-        <v>1.535301197584488</v>
+        <v>1.56266870637171</v>
       </c>
       <c r="D10">
-        <v>0.01578807186044529</v>
+        <v>0.02854187158562738</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.806493293589227</v>
+        <v>2.599078181730164</v>
       </c>
       <c r="G10">
-        <v>0.0007376345729786336</v>
+        <v>0.0007670609992566027</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02332236619447237</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.142826035608778</v>
+        <v>5.702463316671128</v>
       </c>
       <c r="C11">
-        <v>1.658587131597073</v>
+        <v>1.695150015529009</v>
       </c>
       <c r="D11">
-        <v>0.01553316202616273</v>
+        <v>0.02690158284183397</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.031610371166863</v>
+        <v>2.732620438162456</v>
       </c>
       <c r="G11">
-        <v>0.0007300992128100956</v>
+        <v>0.0007617051299523281</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03092685545455609</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.319443821885045</v>
+        <v>5.853976995486789</v>
       </c>
       <c r="C12">
-        <v>1.705907501191689</v>
+        <v>1.74125032028121</v>
       </c>
       <c r="D12">
-        <v>0.01548759612222383</v>
+        <v>0.02678925719047065</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.119355932799721</v>
+        <v>2.805121269063136</v>
       </c>
       <c r="G12">
-        <v>0.0007272443761896254</v>
+        <v>0.0007596497882525117</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03395731172641359</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.281292102493751</v>
+        <v>5.821369806137852</v>
       </c>
       <c r="C13">
-        <v>1.695685934319783</v>
+        <v>1.730355516662257</v>
       </c>
       <c r="D13">
-        <v>0.01549500406913751</v>
+        <v>0.02691548642701136</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.100340404786039</v>
+        <v>2.7937567358195</v>
       </c>
       <c r="G13">
-        <v>0.0007278593669874292</v>
+        <v>0.0007600847718871556</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.03326810816659798</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.157305844957307</v>
+        <v>5.714937202006524</v>
       </c>
       <c r="C14">
-        <v>1.662466755520882</v>
+        <v>1.698531770833597</v>
       </c>
       <c r="D14">
-        <v>0.01552834241708112</v>
+        <v>0.02693544161671468</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.038776740757726</v>
+        <v>2.740386170866088</v>
       </c>
       <c r="G14">
-        <v>0.0007298644031033386</v>
+        <v>0.0007615327611190859</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.03115985350385309</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.081686185184537</v>
+        <v>5.649740136347646</v>
       </c>
       <c r="C15">
-        <v>1.64220546191865</v>
+        <v>1.680965767896112</v>
       </c>
       <c r="D15">
-        <v>0.0155556542206412</v>
+        <v>0.02674985480474312</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.001405127079437</v>
+        <v>2.699396207634749</v>
       </c>
       <c r="G15">
-        <v>0.0007310922034185351</v>
+        <v>0.0007624352174286817</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0299580457551416</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.652990293917867</v>
+        <v>5.278697796008942</v>
       </c>
       <c r="C16">
-        <v>1.527326266412842</v>
+        <v>1.569605084833768</v>
       </c>
       <c r="D16">
-        <v>0.01581140929195257</v>
+        <v>0.02695271143622691</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.792108637555089</v>
+        <v>2.519720400877446</v>
       </c>
       <c r="G16">
-        <v>0.0007381271317403242</v>
+        <v>0.0007675348952299834</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0232828947889967</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.393800947983209</v>
+        <v>5.052524724942089</v>
       </c>
       <c r="C17">
-        <v>1.457852753002157</v>
+        <v>1.50215881308543</v>
       </c>
       <c r="D17">
-        <v>0.01605037481469651</v>
+        <v>0.02708162223982136</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.667731642701511</v>
+        <v>2.41098210759165</v>
       </c>
       <c r="G17">
-        <v>0.0007424461020125182</v>
+        <v>0.0007706821269455662</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01963970417161942</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.245989656846007</v>
+        <v>4.923200573215865</v>
       </c>
       <c r="C18">
-        <v>1.41822543637744</v>
+        <v>1.458954490730605</v>
       </c>
       <c r="D18">
-        <v>0.01621557927873596</v>
+        <v>0.02764265834598412</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.597550551165597</v>
+        <v>2.370087421251597</v>
       </c>
       <c r="G18">
-        <v>0.0007449330471719184</v>
+        <v>0.0007724629092008239</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01752388413944761</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.196149417630181</v>
+        <v>4.879276451817987</v>
       </c>
       <c r="C19">
-        <v>1.404862126519902</v>
+        <v>1.448003433303086</v>
       </c>
       <c r="D19">
-        <v>0.01627606885915256</v>
+        <v>0.02745578895909873</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.574010827916027</v>
+        <v>2.339989425491353</v>
       </c>
       <c r="G19">
-        <v>0.0007457757046848384</v>
+        <v>0.0007730957371923109</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01696520041713789</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.421258112825853</v>
+        <v>5.076572415876285</v>
       </c>
       <c r="C20">
-        <v>1.465213191450857</v>
+        <v>1.508937579475855</v>
       </c>
       <c r="D20">
-        <v>0.01602201213854926</v>
+        <v>0.02710573035128583</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.680828726160456</v>
+        <v>2.424166465931975</v>
       </c>
       <c r="G20">
-        <v>0.0007419860860846746</v>
+        <v>0.0007703434467931631</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01999738226909642</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.193654937208919</v>
+        <v>5.745806434683118</v>
       </c>
       <c r="C21">
-        <v>1.672205790631722</v>
+        <v>1.713135852033304</v>
       </c>
       <c r="D21">
-        <v>0.01551709812646607</v>
+        <v>0.02636761234774454</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.056788281387696</v>
+        <v>2.732090373252191</v>
       </c>
       <c r="G21">
-        <v>0.000729275556903563</v>
+        <v>0.0007611479446893474</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03192115324456424</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.712670881841802</v>
+        <v>6.189017870973885</v>
       </c>
       <c r="C22">
-        <v>1.811255523076341</v>
+        <v>1.843065342267494</v>
       </c>
       <c r="D22">
-        <v>0.01548886780178904</v>
+        <v>0.02661427810312667</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.317291472339832</v>
+        <v>2.969222859553071</v>
       </c>
       <c r="G22">
-        <v>0.0007209575615195041</v>
+        <v>0.0007551392189640411</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.04113182192123954</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.434205757629798</v>
+        <v>5.952378374591888</v>
       </c>
       <c r="C23">
-        <v>1.736653739370979</v>
+        <v>1.767049654751872</v>
       </c>
       <c r="D23">
-        <v>0.01547337018647355</v>
+        <v>0.02717120523743866</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.176757806503502</v>
+        <v>2.871098226769163</v>
       </c>
       <c r="G23">
-        <v>0.0007253999430083535</v>
+        <v>0.000758292914541373</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.03589869942773749</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.408841020942418</v>
+        <v>5.066309906723802</v>
       </c>
       <c r="C24">
-        <v>1.4618845678296</v>
+        <v>1.495922873222128</v>
       </c>
       <c r="D24">
-        <v>0.01603474881639144</v>
+        <v>0.02815156441209155</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.674903436160207</v>
+        <v>2.463219505788445</v>
       </c>
       <c r="G24">
-        <v>0.0007421940467370992</v>
+        <v>0.0007704181125877175</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01951105419918786</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.350130130839659</v>
+        <v>4.128569216504843</v>
       </c>
       <c r="C25">
-        <v>1.177879969763012</v>
+        <v>1.214108523772381</v>
       </c>
       <c r="D25">
-        <v>0.01768125283359723</v>
+        <v>0.02924206279023522</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.184398175477654</v>
+        <v>2.043038658649309</v>
       </c>
       <c r="G25">
-        <v>0.000760429960732778</v>
+        <v>0.000783786542006243</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007537696458468801</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.449428331641002</v>
+        <v>1.05393618525423</v>
       </c>
       <c r="C2">
-        <v>0.9982227907523225</v>
+        <v>0.1015048830267489</v>
       </c>
       <c r="D2">
-        <v>0.03172138027976246</v>
+        <v>0.0568217256332062</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.814263910620483</v>
+        <v>1.293916992484043</v>
       </c>
       <c r="G2">
-        <v>0.0007938166815006416</v>
+        <v>1.015278400264748</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01892298876830645</v>
       </c>
       <c r="I2">
-        <v>0.002040037396629835</v>
+        <v>0.02365894106755384</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7225596189526442</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.793807992190203</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07482754071707376</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9651993563561234</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2440231907028334</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.993295657310057</v>
+        <v>0.9185983582577251</v>
       </c>
       <c r="C3">
-        <v>0.8637839152792992</v>
+        <v>0.08980804658331465</v>
       </c>
       <c r="D3">
-        <v>0.03239356478296429</v>
+        <v>0.05007293875782892</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.624637643376602</v>
+        <v>1.241514927111808</v>
       </c>
       <c r="G3">
-        <v>0.0008009136028366262</v>
+        <v>0.974888162831661</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0231285587688147</v>
       </c>
       <c r="I3">
-        <v>0.0005415994938058333</v>
+        <v>0.02835289009865072</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.7082493219598121</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7757196455829103</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06927203260070769</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8397497706764057</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2158408837584034</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.714879073436464</v>
+        <v>0.8354244366429668</v>
       </c>
       <c r="C4">
-        <v>0.7827315438028677</v>
+        <v>0.08273776513983222</v>
       </c>
       <c r="D4">
-        <v>0.03276040081950882</v>
+        <v>0.04596162473915655</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.509036365549221</v>
+        <v>1.209702149176991</v>
       </c>
       <c r="G4">
-        <v>0.0008053941136406356</v>
+        <v>0.9503939480848942</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02602413506043821</v>
       </c>
       <c r="I4">
-        <v>0.0004733647622363613</v>
+        <v>0.03159319267907179</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6996887285860822</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7646941314355189</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06581149405728226</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7629016094537349</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1986179014909197</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601712334019965</v>
+        <v>0.8012516318770224</v>
       </c>
       <c r="C5">
-        <v>0.7515755768533836</v>
+        <v>0.08007658749368574</v>
       </c>
       <c r="D5">
-        <v>0.03271940708173204</v>
+        <v>0.04436772199738925</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.455012734718579</v>
+        <v>1.195488947140518</v>
       </c>
       <c r="G5">
-        <v>0.0008072665837825106</v>
+        <v>0.9391734148822337</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02728883219413403</v>
       </c>
       <c r="I5">
-        <v>0.0007113638850162474</v>
+        <v>0.03310260776732354</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6955798000156364</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7592325220292437</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06431441630954282</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7319034212443682</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1917844036064267</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582883763513337</v>
+        <v>0.7952652751153266</v>
       </c>
       <c r="C6">
-        <v>0.7483124265440608</v>
+        <v>0.07987609203454582</v>
       </c>
       <c r="D6">
-        <v>0.03249804333232653</v>
+        <v>0.04419418396412311</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.437445664522158</v>
+        <v>1.191503482490013</v>
       </c>
       <c r="G6">
-        <v>0.0008075971685625319</v>
+        <v>0.9357143154072247</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0275137695708173</v>
       </c>
       <c r="I6">
-        <v>0.0008540287709379868</v>
+        <v>0.0334900303454102</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6940764340432537</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7571214618029245</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06397490421676011</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7271039647848738</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1908555817808946</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.713187553185435</v>
+        <v>0.8341119558018875</v>
       </c>
       <c r="C7">
-        <v>0.7874845422498709</v>
+        <v>0.08335818228533753</v>
       </c>
       <c r="D7">
-        <v>0.03216823667292878</v>
+        <v>0.04618811486098195</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.484705568971577</v>
+        <v>1.205059572339415</v>
       </c>
       <c r="G7">
-        <v>0.0008054670675243055</v>
+        <v>0.9458734650211369</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02606799640706237</v>
       </c>
       <c r="I7">
-        <v>0.0007047959113215541</v>
+        <v>0.03195397675520439</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6973849213008378</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7613308697610961</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06554492429280856</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7634290606179945</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1990863427409693</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.291485219529761</v>
+        <v>1.006138062960019</v>
       </c>
       <c r="C8">
-        <v>0.9584315267965735</v>
+        <v>0.09832286486212638</v>
       </c>
       <c r="D8">
-        <v>0.03116883041336749</v>
+        <v>0.05481773605929163</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.717098490305418</v>
+        <v>1.269897079883179</v>
       </c>
       <c r="G8">
-        <v>0.0007962998941470674</v>
+        <v>0.9955183015189562</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.02033652051213652</v>
       </c>
       <c r="I8">
-        <v>0.001581273689130747</v>
+        <v>0.02560812320587669</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7146196840976415</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.78321910320998</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07259485001556953</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9231572633401015</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2350350933479035</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.443011327753197</v>
+        <v>1.344752238612273</v>
       </c>
       <c r="C9">
-        <v>1.298344364862317</v>
+        <v>0.1275276023470013</v>
       </c>
       <c r="D9">
-        <v>0.02993710216353129</v>
+        <v>0.07158309855564937</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.225773536441793</v>
+        <v>1.408169331520199</v>
       </c>
       <c r="G9">
-        <v>0.0007791603013742216</v>
+        <v>1.103394947408219</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.011667354266753</v>
       </c>
       <c r="I9">
-        <v>0.01062721742675876</v>
+        <v>0.0156270799852658</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7543310634428479</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8327405860530348</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08650329369526233</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.236553413215859</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3052849652198404</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.305526218380351</v>
+        <v>1.591278783380744</v>
       </c>
       <c r="C10">
-        <v>1.56266870637171</v>
+        <v>0.1516391879683141</v>
       </c>
       <c r="D10">
-        <v>0.02854187158562738</v>
+        <v>0.08300762557914254</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.599078181730164</v>
+        <v>1.486223645858615</v>
       </c>
       <c r="G10">
-        <v>0.0007670609992566027</v>
+        <v>1.162473433372654</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.007469334817000739</v>
       </c>
       <c r="I10">
-        <v>0.02332236619447237</v>
+        <v>0.01056972312114901</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7735722714300834</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8542167096212339</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09251044529468899</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.471055916229915</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3463510258485485</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.702463316671128</v>
+        <v>1.683257333026489</v>
       </c>
       <c r="C11">
-        <v>1.695150015529009</v>
+        <v>0.177628946612046</v>
       </c>
       <c r="D11">
-        <v>0.02690158284183397</v>
+        <v>0.07799455501788088</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.732620438162456</v>
+        <v>1.316473641385613</v>
       </c>
       <c r="G11">
-        <v>0.0007617051299523281</v>
+        <v>1.015115034275198</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02588985627803098</v>
       </c>
       <c r="I11">
-        <v>0.03092685545455609</v>
+        <v>0.009986810052237338</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6939570424115971</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7445523843805404</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0683892913201003</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.597350729599725</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2724890910701987</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.853976995486789</v>
+        <v>1.709695416241999</v>
       </c>
       <c r="C12">
-        <v>1.74125032028121</v>
+        <v>0.1946290059296274</v>
       </c>
       <c r="D12">
-        <v>0.02678925719047065</v>
+        <v>0.07111723041615647</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.805121269063136</v>
+        <v>1.171939487740261</v>
       </c>
       <c r="G12">
-        <v>0.0007596497882525117</v>
+        <v>0.8928280346450777</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06485817383290282</v>
       </c>
       <c r="I12">
-        <v>0.03395731172641359</v>
+        <v>0.00984212271545104</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6297768453968757</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6596006541145769</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05716427238443167</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.653520238026431</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2089404168455644</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.821369806137852</v>
+        <v>1.685568888761537</v>
       </c>
       <c r="C13">
-        <v>1.730355516662257</v>
+        <v>0.206528050302154</v>
       </c>
       <c r="D13">
-        <v>0.02691548642701136</v>
+        <v>0.06284422657017075</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.7937567358195</v>
+        <v>1.031594064599481</v>
       </c>
       <c r="G13">
-        <v>0.0007600847718871556</v>
+        <v>0.7759003544468328</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1213370073994469</v>
       </c>
       <c r="I13">
-        <v>0.03326810816659798</v>
+        <v>0.01045246782234699</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5701729669105617</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5835498592176478</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0547007131488817</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.659867367624059</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1509003484639635</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.714937202006524</v>
+        <v>1.645582354692863</v>
       </c>
       <c r="C14">
-        <v>1.698531770833597</v>
+        <v>0.2128811844391834</v>
       </c>
       <c r="D14">
-        <v>0.02693544161671468</v>
+        <v>0.05656854052020321</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.740386170866088</v>
+        <v>0.936086613183825</v>
       </c>
       <c r="G14">
-        <v>0.0007615327611190859</v>
+        <v>0.6971168360226585</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1713912053091065</v>
       </c>
       <c r="I14">
-        <v>0.03115985350385309</v>
+        <v>0.01134472520263596</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5307589351586302</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5349050945100693</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0582214156932892</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.642047547519411</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1143777589924326</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.649740136347646</v>
+        <v>1.624800602748593</v>
       </c>
       <c r="C15">
-        <v>1.680965767896112</v>
+        <v>0.2135120839049023</v>
       </c>
       <c r="D15">
-        <v>0.02674985480474312</v>
+        <v>0.05481656670778534</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.699396207634749</v>
+        <v>0.9115831682351399</v>
       </c>
       <c r="G15">
-        <v>0.0007624352174286817</v>
+        <v>0.6770153179882925</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.184236222827451</v>
       </c>
       <c r="I15">
-        <v>0.0299580457551416</v>
+        <v>0.0118890606831652</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5211086433031227</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5233064037466413</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05964748642807471</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.627363082528802</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1057783490392836</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.278697796008942</v>
+        <v>1.523214531755059</v>
       </c>
       <c r="C16">
-        <v>1.569605084833768</v>
+        <v>0.2006087005758275</v>
       </c>
       <c r="D16">
-        <v>0.02695271143622691</v>
+        <v>0.05193854425650102</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.519720400877446</v>
+        <v>0.9058574346690236</v>
       </c>
       <c r="G16">
-        <v>0.0007675348952299834</v>
+        <v>0.6741967576541725</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1732744308134642</v>
       </c>
       <c r="I16">
-        <v>0.0232828947889967</v>
+        <v>0.01402173340615054</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5240312304271981</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5284295318582437</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0575657043308464</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.524729969867025</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1019356407132577</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.052524724942089</v>
+        <v>1.466654647737698</v>
       </c>
       <c r="C17">
-        <v>1.50215881308543</v>
+        <v>0.1873675772192769</v>
       </c>
       <c r="D17">
-        <v>0.02708162223982136</v>
+        <v>0.05302398279315668</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.41098210759165</v>
+        <v>0.9510253931361419</v>
       </c>
       <c r="G17">
-        <v>0.0007706821269455662</v>
+        <v>0.7128560609417605</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.136510719505182</v>
       </c>
       <c r="I17">
-        <v>0.01963970417161942</v>
+        <v>0.01524152890712749</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5467840843682836</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5573591501081943</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05318118568153984</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.455786810701227</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1173620813137006</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.923200573215865</v>
+        <v>1.442768000500536</v>
       </c>
       <c r="C18">
-        <v>1.458954490730605</v>
+        <v>0.1720903326281302</v>
       </c>
       <c r="D18">
-        <v>0.02764265834598412</v>
+        <v>0.05758065434497439</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.370087421251597</v>
+        <v>1.05263470523289</v>
       </c>
       <c r="G18">
-        <v>0.0007724629092008239</v>
+        <v>0.7986281959742314</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08387009751580621</v>
       </c>
       <c r="I18">
-        <v>0.01752388413944761</v>
+        <v>0.0153214288811947</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5926271385623778</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6157779487065511</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05117804461989151</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.407123021942084</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1551839030472379</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.879276451817987</v>
+        <v>1.444968469845662</v>
       </c>
       <c r="C19">
-        <v>1.448003433303086</v>
+        <v>0.1586285854847631</v>
       </c>
       <c r="D19">
-        <v>0.02745578895909873</v>
+        <v>0.06524695838759698</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.339989425491353</v>
+        <v>1.193542896605308</v>
       </c>
       <c r="G19">
-        <v>0.0007730957371923109</v>
+        <v>0.9168500700976665</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03784100633729537</v>
       </c>
       <c r="I19">
-        <v>0.01696520041713789</v>
+        <v>0.01503440535790457</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6537987041599393</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6952362159741483</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05841930536226947</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.38039569159929</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2158324053258127</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.076572415876285</v>
+        <v>1.523629951748376</v>
       </c>
       <c r="C20">
-        <v>1.508937579475855</v>
+        <v>0.1474369414924297</v>
       </c>
       <c r="D20">
-        <v>0.02710573035128583</v>
+        <v>0.08072900242561332</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.424166465931975</v>
+        <v>1.45092267647081</v>
       </c>
       <c r="G20">
-        <v>0.0007703434467931631</v>
+        <v>1.132581905052234</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.008487356281472902</v>
       </c>
       <c r="I20">
-        <v>0.01999738226909642</v>
+        <v>0.0127128666579841</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7611719153544101</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8379541412125633</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0900222776163595</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.412396797886174</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3368241886847017</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.745806434683118</v>
+        <v>1.716886186464365</v>
       </c>
       <c r="C21">
-        <v>1.713135852033304</v>
+        <v>0.1635939676778406</v>
       </c>
       <c r="D21">
-        <v>0.02636761234774454</v>
+        <v>0.09133728246643358</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.732090373252191</v>
+        <v>1.551405060821082</v>
       </c>
       <c r="G21">
-        <v>0.0007611479446893474</v>
+        <v>1.212767597370899</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005257986681064364</v>
       </c>
       <c r="I21">
-        <v>0.03192115324456424</v>
+        <v>0.009133118240967519</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7936980173728472</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8783440756806087</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1008003807128013</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.589443235300394</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3859836030836306</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.189017870973885</v>
+        <v>1.843517480772761</v>
       </c>
       <c r="C22">
-        <v>1.843065342267494</v>
+        <v>0.1742474481359011</v>
       </c>
       <c r="D22">
-        <v>0.02661427810312667</v>
+        <v>0.09736276031229352</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.969222859553071</v>
+        <v>1.611302969213369</v>
       </c>
       <c r="G22">
-        <v>0.0007551392189640411</v>
+        <v>1.26107262914276</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003709951730089589</v>
       </c>
       <c r="I22">
-        <v>0.04113182192123954</v>
+        <v>0.006916162549660321</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8129233060854375</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9020240251403564</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1061682692161625</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.705478900605499</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4116879500711406</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.952378374591888</v>
+        <v>1.776978185991624</v>
       </c>
       <c r="C23">
-        <v>1.767049654751872</v>
+        <v>0.167729769606197</v>
       </c>
       <c r="D23">
-        <v>0.02717120523743866</v>
+        <v>0.09384056429281884</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.871098226769163</v>
+        <v>1.584451026859668</v>
       </c>
       <c r="G23">
-        <v>0.000758292914541373</v>
+        <v>1.240315199731526</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004489074226965317</v>
       </c>
       <c r="I23">
-        <v>0.03589869942773749</v>
+        <v>0.007706021787228678</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8052135765513526</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8931612860173388</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1035978757662299</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.642366769360478</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.397269221271273</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.066309906723802</v>
+        <v>1.523777900533503</v>
       </c>
       <c r="C24">
-        <v>1.495922873222128</v>
+        <v>0.144778301803612</v>
       </c>
       <c r="D24">
-        <v>0.02815156441209155</v>
+        <v>0.08108160650510854</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.463219505788445</v>
+        <v>1.475995178834623</v>
       </c>
       <c r="G24">
-        <v>0.0007704181125877175</v>
+        <v>1.154973794229335</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.008220347371931891</v>
       </c>
       <c r="I24">
-        <v>0.01951105419918786</v>
+        <v>0.01210239522089473</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7726761236732074</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8540879016561504</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09338042385681788</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.406226299956955</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3440810054683681</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.128569216504843</v>
+        <v>1.251532923717519</v>
       </c>
       <c r="C25">
-        <v>1.214108523772381</v>
+        <v>0.120707962073638</v>
       </c>
       <c r="D25">
-        <v>0.02924206279023522</v>
+        <v>0.06746724896274969</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.043038658649309</v>
+        <v>1.362390444326948</v>
       </c>
       <c r="G25">
-        <v>0.000783786542006243</v>
+        <v>1.066036893306048</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01374683413546379</v>
       </c>
       <c r="I25">
-        <v>0.007537696458468801</v>
+        <v>0.01853556551358082</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7393591560659019</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8133747625359007</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08232660908753076</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.153225098243013</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.287212172680114</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05393618525423</v>
+        <v>1.030833313610543</v>
       </c>
       <c r="C2">
-        <v>0.1015048830267489</v>
+        <v>0.1126299157982658</v>
       </c>
       <c r="D2">
-        <v>0.0568217256332062</v>
+        <v>0.06638283323373173</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.293916992484043</v>
+        <v>1.121255848496588</v>
       </c>
       <c r="G2">
-        <v>1.015278400264748</v>
+        <v>0.8449853828374643</v>
       </c>
       <c r="H2">
-        <v>0.01892298876830645</v>
+        <v>0.01520008570266024</v>
       </c>
       <c r="I2">
-        <v>0.02365894106755384</v>
+        <v>0.01738282328722063</v>
       </c>
       <c r="J2">
-        <v>0.7225596189526442</v>
+        <v>0.6301729775218092</v>
       </c>
       <c r="K2">
-        <v>0.793807992190203</v>
+        <v>0.6522858452247959</v>
       </c>
       <c r="L2">
-        <v>0.07482754071707376</v>
+        <v>0.263114138188012</v>
       </c>
       <c r="M2">
-        <v>0.9651993563561234</v>
+        <v>0.2262543424107903</v>
       </c>
       <c r="N2">
-        <v>0.2440231907028334</v>
+        <v>0.06704560043996111</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.001602820984488</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2708490568633835</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9185983582577251</v>
+        <v>0.8991941721395165</v>
       </c>
       <c r="C3">
-        <v>0.08980804658331465</v>
+        <v>0.09722249298793884</v>
       </c>
       <c r="D3">
-        <v>0.05007293875782892</v>
+        <v>0.05831841933836301</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.241514927111808</v>
+        <v>1.086425700012192</v>
       </c>
       <c r="G3">
-        <v>0.974888162831661</v>
+        <v>0.8249509062428615</v>
       </c>
       <c r="H3">
-        <v>0.0231285587688147</v>
+        <v>0.01866061205928166</v>
       </c>
       <c r="I3">
-        <v>0.02835289009865072</v>
+        <v>0.02088341311756325</v>
       </c>
       <c r="J3">
-        <v>0.7082493219598121</v>
+        <v>0.6186960228080665</v>
       </c>
       <c r="K3">
-        <v>0.7757196455829103</v>
+        <v>0.6458472718696626</v>
       </c>
       <c r="L3">
-        <v>0.06927203260070769</v>
+        <v>0.2653203769200019</v>
       </c>
       <c r="M3">
-        <v>0.8397497706764057</v>
+        <v>0.2209842332241259</v>
       </c>
       <c r="N3">
-        <v>0.2158408837584034</v>
+        <v>0.0627459879649237</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8705369387793667</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2398703799359225</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8354244366429668</v>
+        <v>0.8181624488778994</v>
       </c>
       <c r="C4">
-        <v>0.08273776513983222</v>
+        <v>0.08795247052317734</v>
       </c>
       <c r="D4">
-        <v>0.04596162473915655</v>
+        <v>0.05341383100228114</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.209702149176991</v>
+        <v>1.065232453517062</v>
       </c>
       <c r="G4">
-        <v>0.9503939480848942</v>
+        <v>0.8129865410789421</v>
       </c>
       <c r="H4">
-        <v>0.02602413506043821</v>
+        <v>0.02104882767963379</v>
       </c>
       <c r="I4">
-        <v>0.03159319267907179</v>
+        <v>0.02331997696429466</v>
       </c>
       <c r="J4">
-        <v>0.6996887285860822</v>
+        <v>0.6115843039145403</v>
       </c>
       <c r="K4">
-        <v>0.7646941314355189</v>
+        <v>0.6418837367353305</v>
       </c>
       <c r="L4">
-        <v>0.06581149405728226</v>
+        <v>0.2665470643484298</v>
       </c>
       <c r="M4">
-        <v>0.7629016094537349</v>
+        <v>0.2183923817819533</v>
       </c>
       <c r="N4">
-        <v>0.1986179014909197</v>
+        <v>0.06005141420441973</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7902110183039781</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2209608737154127</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8012516318770224</v>
+        <v>0.7848500751899792</v>
       </c>
       <c r="C5">
-        <v>0.08007658749368574</v>
+        <v>0.08443673599425949</v>
       </c>
       <c r="D5">
-        <v>0.04436772199738925</v>
+        <v>0.05149958400726717</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.195488947140518</v>
+        <v>1.055499463110777</v>
       </c>
       <c r="G5">
-        <v>0.9391734148822337</v>
+        <v>0.8071010995118826</v>
       </c>
       <c r="H5">
-        <v>0.02728883219413403</v>
+        <v>0.02209318849372199</v>
       </c>
       <c r="I5">
-        <v>0.03310260776732354</v>
+        <v>0.02449404775162378</v>
       </c>
       <c r="J5">
-        <v>0.6955798000156364</v>
+        <v>0.608085733517413</v>
       </c>
       <c r="K5">
-        <v>0.7592325220292437</v>
+        <v>0.6394625307263908</v>
       </c>
       <c r="L5">
-        <v>0.06431441630954282</v>
+        <v>0.2666553658583624</v>
       </c>
       <c r="M5">
-        <v>0.7319034212443682</v>
+        <v>0.2172568900141414</v>
       </c>
       <c r="N5">
-        <v>0.1917844036064267</v>
+        <v>0.05887726518159297</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7577725784988729</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.213441131140101</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7952652751153266</v>
+        <v>0.7790270385245037</v>
       </c>
       <c r="C6">
-        <v>0.07987609203454582</v>
+        <v>0.08412301716117554</v>
       </c>
       <c r="D6">
-        <v>0.04419418396412311</v>
+        <v>0.05127217709728882</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.191503482490013</v>
+        <v>1.052492914087466</v>
       </c>
       <c r="G6">
-        <v>0.9357143154072247</v>
+        <v>0.8047997616270095</v>
       </c>
       <c r="H6">
-        <v>0.0275137695708173</v>
+        <v>0.02227900875776556</v>
       </c>
       <c r="I6">
-        <v>0.0334900303454102</v>
+        <v>0.02483779017521748</v>
       </c>
       <c r="J6">
-        <v>0.6940764340432537</v>
+        <v>0.6067910084962307</v>
       </c>
       <c r="K6">
-        <v>0.7571214618029245</v>
+        <v>0.6380813923141773</v>
       </c>
       <c r="L6">
-        <v>0.06397490421676011</v>
+        <v>0.2662337261674814</v>
       </c>
       <c r="M6">
-        <v>0.7271039647848738</v>
+        <v>0.216783980317409</v>
       </c>
       <c r="N6">
-        <v>0.1908555817808946</v>
+        <v>0.05860591483930833</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7527126236583968</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2123905571832552</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8341119558018875</v>
+        <v>0.8171853665994604</v>
       </c>
       <c r="C7">
-        <v>0.08335818228533753</v>
+        <v>0.08836438138339986</v>
       </c>
       <c r="D7">
-        <v>0.04618811486098195</v>
+        <v>0.05387813305146238</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.205059572339415</v>
+        <v>1.059141193896139</v>
       </c>
       <c r="G7">
-        <v>0.9458734650211369</v>
+        <v>0.8117780806731076</v>
       </c>
       <c r="H7">
-        <v>0.02606799640706237</v>
+        <v>0.02109708582670178</v>
       </c>
       <c r="I7">
-        <v>0.03195397675520439</v>
+        <v>0.0237252130868173</v>
       </c>
       <c r="J7">
-        <v>0.6973849213008378</v>
+        <v>0.6035350127945094</v>
       </c>
       <c r="K7">
-        <v>0.7613308697610961</v>
+        <v>0.6379398371617846</v>
       </c>
       <c r="L7">
-        <v>0.06554492429280856</v>
+        <v>0.2648328524537327</v>
       </c>
       <c r="M7">
-        <v>0.7634290606179945</v>
+        <v>0.2171679454555111</v>
       </c>
       <c r="N7">
-        <v>0.1990863427409693</v>
+        <v>0.0598008032354258</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7903189795455319</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2214229179582219</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.006138062960019</v>
+        <v>0.9852959412767461</v>
       </c>
       <c r="C8">
-        <v>0.09832286486212638</v>
+        <v>0.1073365136564348</v>
       </c>
       <c r="D8">
-        <v>0.05481773605929163</v>
+        <v>0.0647439238021974</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.269897079883179</v>
+        <v>1.097116506382008</v>
       </c>
       <c r="G8">
-        <v>0.9955183015189562</v>
+        <v>0.8416175588060923</v>
       </c>
       <c r="H8">
-        <v>0.02033652051213652</v>
+        <v>0.01639470206197835</v>
       </c>
       <c r="I8">
-        <v>0.02560812320587669</v>
+        <v>0.01902095472065302</v>
       </c>
       <c r="J8">
-        <v>0.7146196840976415</v>
+        <v>0.6039328053381325</v>
       </c>
       <c r="K8">
-        <v>0.78321910320998</v>
+        <v>0.6425327532234135</v>
       </c>
       <c r="L8">
-        <v>0.07259485001556953</v>
+        <v>0.2607942097568809</v>
       </c>
       <c r="M8">
-        <v>0.9231572633401015</v>
+        <v>0.2217743495818496</v>
       </c>
       <c r="N8">
-        <v>0.2350350933479035</v>
+        <v>0.06521040645122156</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.956399160536904</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.260947127180799</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.344752238612273</v>
+        <v>1.314054890759706</v>
       </c>
       <c r="C9">
-        <v>0.1275276023470013</v>
+        <v>0.1458778500246609</v>
       </c>
       <c r="D9">
-        <v>0.07158309855564937</v>
+        <v>0.08511986159978591</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.408169331520199</v>
+        <v>1.187907717039408</v>
       </c>
       <c r="G9">
-        <v>1.103394947408219</v>
+        <v>0.9004234331462015</v>
       </c>
       <c r="H9">
-        <v>0.011667354266753</v>
+        <v>0.009288278152807361</v>
       </c>
       <c r="I9">
-        <v>0.0156270799852658</v>
+        <v>0.01155156669645585</v>
       </c>
       <c r="J9">
-        <v>0.7543310634428479</v>
+        <v>0.6291846329657318</v>
       </c>
       <c r="K9">
-        <v>0.8327405860530348</v>
+        <v>0.6607183708534876</v>
       </c>
       <c r="L9">
-        <v>0.08650329369526233</v>
+        <v>0.2557523942327684</v>
       </c>
       <c r="M9">
-        <v>1.236553413215859</v>
+        <v>0.2389524234446405</v>
       </c>
       <c r="N9">
-        <v>0.3052849652198404</v>
+        <v>0.07587998734845058</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.28328696176348</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3383891834833292</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.591278783380744</v>
+        <v>1.554755163300655</v>
       </c>
       <c r="C10">
-        <v>0.1516391879683141</v>
+        <v>0.1753977903973549</v>
       </c>
       <c r="D10">
-        <v>0.08300762557914254</v>
+        <v>0.1004598939542376</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.486223645858615</v>
+        <v>1.223649335610332</v>
       </c>
       <c r="G10">
-        <v>1.162473433372654</v>
+        <v>0.944178767211767</v>
       </c>
       <c r="H10">
-        <v>0.007469334817000739</v>
+        <v>0.005945141411493271</v>
       </c>
       <c r="I10">
-        <v>0.01056972312114901</v>
+        <v>0.007959225829593741</v>
       </c>
       <c r="J10">
-        <v>0.7735722714300834</v>
+        <v>0.606492390486352</v>
       </c>
       <c r="K10">
-        <v>0.8542167096212339</v>
+        <v>0.6564958849538343</v>
       </c>
       <c r="L10">
-        <v>0.09251044529468899</v>
+        <v>0.2452144615044318</v>
       </c>
       <c r="M10">
-        <v>1.471055916229915</v>
+        <v>0.2477740617306914</v>
       </c>
       <c r="N10">
-        <v>0.3463510258485485</v>
+        <v>0.08001973346679492</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.524620883955606</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3840291518578027</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.683257333026489</v>
+        <v>1.652358563758497</v>
       </c>
       <c r="C11">
-        <v>0.177628946612046</v>
+        <v>0.1986573241059375</v>
       </c>
       <c r="D11">
-        <v>0.07799455501788088</v>
+        <v>0.09700029069712457</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.316473641385613</v>
+        <v>1.062844177359679</v>
       </c>
       <c r="G11">
-        <v>1.015115034275198</v>
+        <v>0.8566504904692209</v>
       </c>
       <c r="H11">
-        <v>0.02588985627803098</v>
+        <v>0.02449382234772557</v>
       </c>
       <c r="I11">
-        <v>0.009986810052237338</v>
+        <v>0.00784407536428855</v>
       </c>
       <c r="J11">
-        <v>0.6939570424115971</v>
+        <v>0.4903570404921567</v>
       </c>
       <c r="K11">
-        <v>0.7445523843805404</v>
+        <v>0.5624428969789861</v>
       </c>
       <c r="L11">
-        <v>0.0683892913201003</v>
+        <v>0.2088579263444927</v>
       </c>
       <c r="M11">
-        <v>1.597350729599725</v>
+        <v>0.2148255170580775</v>
       </c>
       <c r="N11">
-        <v>0.2724890910701987</v>
+        <v>0.06048245600897495</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.644389974867721</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3042367988076649</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.709695416241999</v>
+        <v>1.683956390790286</v>
       </c>
       <c r="C12">
-        <v>0.1946290059296274</v>
+        <v>0.2123841540116587</v>
       </c>
       <c r="D12">
-        <v>0.07111723041615647</v>
+        <v>0.08957408484715756</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.171939487740261</v>
+        <v>0.940910288253157</v>
       </c>
       <c r="G12">
-        <v>0.8928280346450777</v>
+        <v>0.7729846896888972</v>
       </c>
       <c r="H12">
-        <v>0.06485817383290282</v>
+        <v>0.06344773481102095</v>
       </c>
       <c r="I12">
-        <v>0.00984212271545104</v>
+        <v>0.007749103059640383</v>
       </c>
       <c r="J12">
-        <v>0.6297768453968757</v>
+        <v>0.4288280241830122</v>
       </c>
       <c r="K12">
-        <v>0.6596006541145769</v>
+        <v>0.4984432777376995</v>
       </c>
       <c r="L12">
-        <v>0.05716427238443167</v>
+        <v>0.1861468292969448</v>
       </c>
       <c r="M12">
-        <v>1.653520238026431</v>
+        <v>0.1900857478728959</v>
       </c>
       <c r="N12">
-        <v>0.2089404168455644</v>
+        <v>0.05300670445422206</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.6947107631309</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2351162895004109</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.685568888761537</v>
+        <v>1.664256230906716</v>
       </c>
       <c r="C13">
-        <v>0.206528050302154</v>
+        <v>0.2215769563950261</v>
       </c>
       <c r="D13">
-        <v>0.06284422657017075</v>
+        <v>0.07867185920650144</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.031594064599481</v>
+        <v>0.8378046357271955</v>
       </c>
       <c r="G13">
-        <v>0.7759003544468328</v>
+        <v>0.6777983719436378</v>
       </c>
       <c r="H13">
-        <v>0.1213370073994469</v>
+        <v>0.1197811010053869</v>
       </c>
       <c r="I13">
-        <v>0.01045246782234699</v>
+        <v>0.008154758997370948</v>
       </c>
       <c r="J13">
-        <v>0.5701729669105617</v>
+        <v>0.4013004590996871</v>
       </c>
       <c r="K13">
-        <v>0.5835498592176478</v>
+        <v>0.4500043258633291</v>
       </c>
       <c r="L13">
-        <v>0.0547007131488817</v>
+        <v>0.1702533162117348</v>
       </c>
       <c r="M13">
-        <v>1.659867367624059</v>
+        <v>0.1695573297812594</v>
       </c>
       <c r="N13">
-        <v>0.1509003484639635</v>
+        <v>0.05378561514819147</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.696414048047387</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1715072517401168</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.645582354692863</v>
+        <v>1.627050054923757</v>
       </c>
       <c r="C14">
-        <v>0.2128811844391834</v>
+        <v>0.2263009291664844</v>
       </c>
       <c r="D14">
-        <v>0.05656854052020321</v>
+        <v>0.06980568726014269</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.936086613183825</v>
+        <v>0.7730341390913438</v>
       </c>
       <c r="G14">
-        <v>0.6971168360226585</v>
+        <v>0.6081848309752189</v>
       </c>
       <c r="H14">
-        <v>0.1713912053091065</v>
+        <v>0.1696696996450271</v>
       </c>
       <c r="I14">
-        <v>0.01134472520263596</v>
+        <v>0.008794586745958455</v>
       </c>
       <c r="J14">
-        <v>0.5307589351586302</v>
+        <v>0.3933115123912145</v>
       </c>
       <c r="K14">
-        <v>0.5349050945100693</v>
+        <v>0.4223114395776513</v>
       </c>
       <c r="L14">
-        <v>0.0582214156932892</v>
+        <v>0.1616168040538852</v>
       </c>
       <c r="M14">
-        <v>1.642047547519411</v>
+        <v>0.1570822502668889</v>
       </c>
       <c r="N14">
-        <v>0.1143777589924326</v>
+        <v>0.05917113366592375</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.675829260052694</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1312533754044196</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.624800602748593</v>
+        <v>1.606833682538564</v>
       </c>
       <c r="C15">
-        <v>0.2135120839049023</v>
+        <v>0.2267192433725995</v>
       </c>
       <c r="D15">
-        <v>0.05481656670778534</v>
+        <v>0.06709562644981304</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9115831682351399</v>
+        <v>0.7585223399138883</v>
       </c>
       <c r="G15">
-        <v>0.6770153179882925</v>
+        <v>0.5885136074458757</v>
       </c>
       <c r="H15">
-        <v>0.184236222827451</v>
+        <v>0.1824354470684995</v>
       </c>
       <c r="I15">
-        <v>0.0118890606831652</v>
+        <v>0.00923539651942562</v>
       </c>
       <c r="J15">
-        <v>0.5211086433031227</v>
+        <v>0.3954670418002237</v>
       </c>
       <c r="K15">
-        <v>0.5233064037466413</v>
+        <v>0.4169870742088442</v>
       </c>
       <c r="L15">
-        <v>0.05964748642807471</v>
+        <v>0.1601223433923558</v>
       </c>
       <c r="M15">
-        <v>1.627363082528802</v>
+        <v>0.1543778699050158</v>
       </c>
       <c r="N15">
-        <v>0.1057783490392836</v>
+        <v>0.06098663518422853</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.660669992240713</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1217145616392941</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.523214531755059</v>
+        <v>1.504315813462824</v>
       </c>
       <c r="C16">
-        <v>0.2006087005758275</v>
+        <v>0.2152355917897779</v>
       </c>
       <c r="D16">
-        <v>0.05193854425650102</v>
+        <v>0.06133984939646098</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9058574346690236</v>
+        <v>0.7746448215295842</v>
       </c>
       <c r="G16">
-        <v>0.6741967576541725</v>
+        <v>0.5710121932645791</v>
       </c>
       <c r="H16">
-        <v>0.1732744308134642</v>
+        <v>0.1710767027705771</v>
       </c>
       <c r="I16">
-        <v>0.01402173340615054</v>
+        <v>0.01077620043533223</v>
       </c>
       <c r="J16">
-        <v>0.5240312304271981</v>
+        <v>0.4365218497275833</v>
       </c>
       <c r="K16">
-        <v>0.5284295318582437</v>
+        <v>0.4324408721584803</v>
       </c>
       <c r="L16">
-        <v>0.0575657043308464</v>
+        <v>0.1668081367139802</v>
       </c>
       <c r="M16">
-        <v>1.524729969867025</v>
+        <v>0.1582242714115303</v>
       </c>
       <c r="N16">
-        <v>0.1019356407132577</v>
+        <v>0.05874238495346162</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.559638128680888</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1172213844499979</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.466654647737698</v>
+        <v>1.446020894625832</v>
       </c>
       <c r="C17">
-        <v>0.1873675772192769</v>
+        <v>0.20334122819051</v>
       </c>
       <c r="D17">
-        <v>0.05302398279315668</v>
+        <v>0.06178313692902293</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9510253931361419</v>
+        <v>0.8198724683245331</v>
       </c>
       <c r="G17">
-        <v>0.7128560609417605</v>
+        <v>0.5953461262267723</v>
       </c>
       <c r="H17">
-        <v>0.136510719505182</v>
+        <v>0.1340961218597698</v>
       </c>
       <c r="I17">
-        <v>0.01524152890712749</v>
+        <v>0.01167855312357702</v>
       </c>
       <c r="J17">
-        <v>0.5467840843682836</v>
+        <v>0.4716991913111102</v>
       </c>
       <c r="K17">
-        <v>0.5573591501081943</v>
+        <v>0.4585463314607061</v>
       </c>
       <c r="L17">
-        <v>0.05318118568153984</v>
+        <v>0.1769063531347754</v>
       </c>
       <c r="M17">
-        <v>1.455786810701227</v>
+        <v>0.1671747532275454</v>
       </c>
       <c r="N17">
-        <v>0.1173620813137006</v>
+        <v>0.05340933579110185</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.492732741410748</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1340088955689041</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.442768000500536</v>
+        <v>1.418917604499484</v>
       </c>
       <c r="C18">
-        <v>0.1720903326281302</v>
+        <v>0.1899789848066291</v>
       </c>
       <c r="D18">
-        <v>0.05758065434497439</v>
+        <v>0.06705097650704062</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.05263470523289</v>
+        <v>0.9048670888895032</v>
       </c>
       <c r="G18">
-        <v>0.7986281959742314</v>
+        <v>0.6586266057181547</v>
       </c>
       <c r="H18">
-        <v>0.08387009751580621</v>
+        <v>0.08141360463149283</v>
       </c>
       <c r="I18">
-        <v>0.0153214288811947</v>
+        <v>0.01162776539405996</v>
       </c>
       <c r="J18">
-        <v>0.5926271385623778</v>
+        <v>0.5149077915026652</v>
       </c>
       <c r="K18">
-        <v>0.6157779487065511</v>
+        <v>0.5027983899146271</v>
       </c>
       <c r="L18">
-        <v>0.05117804461989151</v>
+        <v>0.1934164135106009</v>
       </c>
       <c r="M18">
-        <v>1.407123021942084</v>
+        <v>0.1835662252218384</v>
       </c>
       <c r="N18">
-        <v>0.1551839030472379</v>
+        <v>0.04937884613948995</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.447585242810874</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.175320599780612</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.444968469845662</v>
+        <v>1.41686871173701</v>
       </c>
       <c r="C19">
-        <v>0.1586285854847631</v>
+        <v>0.1788052518544703</v>
       </c>
       <c r="D19">
-        <v>0.06524695838759698</v>
+        <v>0.07636627361405601</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.193542896605308</v>
+        <v>1.017236639121244</v>
       </c>
       <c r="G19">
-        <v>0.9168500700976665</v>
+        <v>0.7468229652956069</v>
       </c>
       <c r="H19">
-        <v>0.03784100633729537</v>
+        <v>0.03551917225580326</v>
       </c>
       <c r="I19">
-        <v>0.01503440535790457</v>
+        <v>0.01148971902575813</v>
       </c>
       <c r="J19">
-        <v>0.6537987041599393</v>
+        <v>0.563918546441414</v>
       </c>
       <c r="K19">
-        <v>0.6952362159741483</v>
+        <v>0.5597009088880007</v>
       </c>
       <c r="L19">
-        <v>0.05841930536226947</v>
+        <v>0.2143189420767442</v>
       </c>
       <c r="M19">
-        <v>1.38039569159929</v>
+        <v>0.2052115711714499</v>
       </c>
       <c r="N19">
-        <v>0.2158324053258127</v>
+        <v>0.05340510679894628</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.425437692905035</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2413691681953338</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.523629951748376</v>
+        <v>1.487994705945397</v>
       </c>
       <c r="C20">
-        <v>0.1474369414924297</v>
+        <v>0.1710978929344975</v>
       </c>
       <c r="D20">
-        <v>0.08072900242561332</v>
+        <v>0.09622106850945045</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.45092267647081</v>
+        <v>1.209582533235334</v>
       </c>
       <c r="G20">
-        <v>1.132581905052234</v>
+        <v>0.911762118903539</v>
       </c>
       <c r="H20">
-        <v>0.008487356281472902</v>
+        <v>0.006730789278084348</v>
       </c>
       <c r="I20">
-        <v>0.0127128666579841</v>
+        <v>0.009862819748676976</v>
       </c>
       <c r="J20">
-        <v>0.7611719153544101</v>
+        <v>0.6267191038260336</v>
       </c>
       <c r="K20">
-        <v>0.8379541412125633</v>
+        <v>0.6536463773996743</v>
       </c>
       <c r="L20">
-        <v>0.0900222776163595</v>
+        <v>0.246529428615645</v>
       </c>
       <c r="M20">
-        <v>1.412396797886174</v>
+        <v>0.2437742481852041</v>
       </c>
       <c r="N20">
-        <v>0.3368241886847017</v>
+        <v>0.07828825534065231</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.465317035266679</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3731040783613366</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.716886186464365</v>
+        <v>1.680549381419326</v>
       </c>
       <c r="C21">
-        <v>0.1635939676778406</v>
+        <v>0.1862102602545974</v>
       </c>
       <c r="D21">
-        <v>0.09133728246643358</v>
+        <v>0.1154005895184724</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.551405060821082</v>
+        <v>1.229161363389537</v>
       </c>
       <c r="G21">
-        <v>1.212767597370899</v>
+        <v>1.022672295378229</v>
       </c>
       <c r="H21">
-        <v>0.005257986681064364</v>
+        <v>0.004181938375658834</v>
       </c>
       <c r="I21">
-        <v>0.009133118240967519</v>
+        <v>0.007384255780902294</v>
       </c>
       <c r="J21">
-        <v>0.7936980173728472</v>
+        <v>0.5251613813515235</v>
       </c>
       <c r="K21">
-        <v>0.8783440756806087</v>
+        <v>0.6453610755651198</v>
       </c>
       <c r="L21">
-        <v>0.1008003807128013</v>
+        <v>0.2369744873489879</v>
       </c>
       <c r="M21">
-        <v>1.589443235300394</v>
+        <v>0.2490414875131464</v>
       </c>
       <c r="N21">
-        <v>0.3859836030836306</v>
+        <v>0.08605638686828598</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.641491486457824</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4278594753835847</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.843517480772761</v>
+        <v>1.807288263889717</v>
       </c>
       <c r="C22">
-        <v>0.1742474481359011</v>
+        <v>0.1955734431057436</v>
       </c>
       <c r="D22">
-        <v>0.09736276031229352</v>
+        <v>0.1275121565235793</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.611302969213369</v>
+        <v>1.234320102488667</v>
       </c>
       <c r="G22">
-        <v>1.26107262914276</v>
+        <v>1.100052953902491</v>
       </c>
       <c r="H22">
-        <v>0.003709951730089589</v>
+        <v>0.002973906386947056</v>
       </c>
       <c r="I22">
-        <v>0.006916162549660321</v>
+        <v>0.005686698007872693</v>
       </c>
       <c r="J22">
-        <v>0.8129233060854375</v>
+        <v>0.4610869005789056</v>
       </c>
       <c r="K22">
-        <v>0.9020240251403564</v>
+        <v>0.6366094252367986</v>
       </c>
       <c r="L22">
-        <v>0.1061682692161625</v>
+        <v>0.2297706205049614</v>
       </c>
       <c r="M22">
-        <v>1.705478900605499</v>
+        <v>0.2514041121244901</v>
       </c>
       <c r="N22">
-        <v>0.4116879500711406</v>
+        <v>0.08969869705079248</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.755894190680863</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4568292428410103</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.776978185991624</v>
+        <v>1.739889890404015</v>
       </c>
       <c r="C23">
-        <v>0.167729769606197</v>
+        <v>0.190411101794183</v>
       </c>
       <c r="D23">
-        <v>0.09384056429281884</v>
+        <v>0.1199784894278082</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.584451026859668</v>
+        <v>1.241133306809857</v>
       </c>
       <c r="G23">
-        <v>1.240315199731526</v>
+        <v>1.055244952280304</v>
       </c>
       <c r="H23">
-        <v>0.004489074226965317</v>
+        <v>0.003574159316539705</v>
       </c>
       <c r="I23">
-        <v>0.007706021787228678</v>
+        <v>0.006142065975613953</v>
       </c>
       <c r="J23">
-        <v>0.8052135765513526</v>
+        <v>0.5074394262169761</v>
       </c>
       <c r="K23">
-        <v>0.8931612860173388</v>
+        <v>0.6470489880945536</v>
       </c>
       <c r="L23">
-        <v>0.1035978757662299</v>
+        <v>0.2355406170256629</v>
       </c>
       <c r="M23">
-        <v>1.642366769360478</v>
+        <v>0.2524980542470132</v>
       </c>
       <c r="N23">
-        <v>0.397269221271273</v>
+        <v>0.08805444329819423</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.694719111270786</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4406116863231375</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.523777900533503</v>
+        <v>1.487574579406044</v>
       </c>
       <c r="C24">
-        <v>0.144778301803612</v>
+        <v>0.1683882029458914</v>
       </c>
       <c r="D24">
-        <v>0.08108160650510854</v>
+        <v>0.09672389340752829</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.475995178834623</v>
+        <v>1.230032211154963</v>
       </c>
       <c r="G24">
-        <v>1.154973794229335</v>
+        <v>0.9286626371723088</v>
       </c>
       <c r="H24">
-        <v>0.008220347371931891</v>
+        <v>0.006485320920198379</v>
       </c>
       <c r="I24">
-        <v>0.01210239522089473</v>
+        <v>0.009170463486081637</v>
       </c>
       <c r="J24">
-        <v>0.7726761236732074</v>
+        <v>0.6365989797332503</v>
       </c>
       <c r="K24">
-        <v>0.8540879016561504</v>
+        <v>0.6657011398798431</v>
       </c>
       <c r="L24">
-        <v>0.09338042385681788</v>
+        <v>0.2509762014168757</v>
       </c>
       <c r="M24">
-        <v>1.406226299956955</v>
+        <v>0.2483372143655984</v>
       </c>
       <c r="N24">
-        <v>0.3440810054683681</v>
+        <v>0.08107270110251363</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.459685315938771</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3810864043885118</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.251532923717519</v>
+        <v>1.223382953156204</v>
       </c>
       <c r="C25">
-        <v>0.120707962073638</v>
+        <v>0.1370385927010176</v>
       </c>
       <c r="D25">
-        <v>0.06746724896274969</v>
+        <v>0.07965678376780261</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.362390444326948</v>
+        <v>1.159487085249083</v>
       </c>
       <c r="G25">
-        <v>1.066036893306048</v>
+        <v>0.8741302960212494</v>
       </c>
       <c r="H25">
-        <v>0.01374683413546379</v>
+        <v>0.01097623148534521</v>
       </c>
       <c r="I25">
-        <v>0.01853556551358082</v>
+        <v>0.01390580227208904</v>
       </c>
       <c r="J25">
-        <v>0.7393591560659019</v>
+        <v>0.6274566315921675</v>
       </c>
       <c r="K25">
-        <v>0.8133747625359007</v>
+        <v>0.6529070461906628</v>
       </c>
       <c r="L25">
-        <v>0.08232660908753076</v>
+        <v>0.2561192993430836</v>
       </c>
       <c r="M25">
-        <v>1.153225098243013</v>
+        <v>0.2326916112828066</v>
       </c>
       <c r="N25">
-        <v>0.287212172680114</v>
+        <v>0.07270786212427538</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.196763077043414</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3182736429100714</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
